--- a/data/Province.xlsx
+++ b/data/Province.xlsx
@@ -342,14 +342,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -366,7 +358,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,99 +473,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,7 +488,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +554,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,7 +590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,19 +608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,25 +632,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,79 +656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,13 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,6 +679,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -701,7 +734,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,41 +750,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,8 +771,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -785,10 +785,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,13 +800,13 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,115 +815,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,8 +1283,8 @@
   <sheetPr/>
   <dimension ref="A1:T736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="K667" workbookViewId="0">
+      <selection activeCell="T667" sqref="T667:T736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1418,7 +1418,9 @@
       <c r="S2" s="4">
         <v>50.8250312805176</v>
       </c>
-      <c r="T2" s="4"/>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3">
@@ -1478,7 +1480,9 @@
       <c r="S3" s="4">
         <v>121.093170166016</v>
       </c>
-      <c r="T3" s="4"/>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4">
@@ -1538,7 +1542,9 @@
       <c r="S4" s="4">
         <v>142.551879882812</v>
       </c>
-      <c r="T4" s="4"/>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5">
@@ -1598,7 +1604,9 @@
       <c r="S5" s="4">
         <v>40.1143913269043</v>
       </c>
-      <c r="T5" s="4"/>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
@@ -1658,7 +1666,9 @@
       <c r="S6" s="4">
         <v>107.532585144043</v>
       </c>
-      <c r="T6" s="4"/>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
@@ -1718,7 +1728,9 @@
       <c r="S7" s="4">
         <v>157.827056884766</v>
       </c>
-      <c r="T7" s="4"/>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
@@ -1778,7 +1790,9 @@
       <c r="S8" s="4">
         <v>149.643173217773</v>
       </c>
-      <c r="T8" s="4"/>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
@@ -1838,7 +1852,9 @@
       <c r="S9" s="4">
         <v>48.903450012207</v>
       </c>
-      <c r="T9" s="4"/>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
@@ -1898,7 +1914,9 @@
       <c r="S10" s="4">
         <v>32.8827209472656</v>
       </c>
-      <c r="T10" s="4"/>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
@@ -1958,7 +1976,9 @@
       <c r="S11" s="4">
         <v>88.8646087646484</v>
       </c>
-      <c r="T11" s="4"/>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
@@ -2018,7 +2038,9 @@
       <c r="S12" s="4">
         <v>163.348037719727</v>
       </c>
-      <c r="T12" s="4"/>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13">
@@ -2078,7 +2100,9 @@
       <c r="S13" s="4">
         <v>86.4880981445312</v>
       </c>
-      <c r="T13" s="4"/>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14">
@@ -2138,7 +2162,9 @@
       <c r="S14" s="4">
         <v>189.508911132812</v>
       </c>
-      <c r="T14" s="4"/>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15">
@@ -2198,7 +2224,9 @@
       <c r="S15" s="4">
         <v>67.5697021484375</v>
       </c>
-      <c r="T15" s="4"/>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16">
@@ -2258,7 +2286,9 @@
       <c r="S16" s="4">
         <v>61.4185028076172</v>
       </c>
-      <c r="T16" s="4"/>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17">
@@ -2318,7 +2348,9 @@
       <c r="S17" s="4">
         <v>170.475402832031</v>
       </c>
-      <c r="T17" s="4"/>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18">
@@ -2378,7 +2410,9 @@
       <c r="S18" s="4">
         <v>105.430946350098</v>
       </c>
-      <c r="T18" s="4"/>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19">
@@ -2438,7 +2472,9 @@
       <c r="S19" s="4">
         <v>14.4374151229858</v>
       </c>
-      <c r="T19" s="4"/>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20">
@@ -2498,7 +2534,9 @@
       <c r="S20" s="4">
         <v>194.344131469727</v>
       </c>
-      <c r="T20" s="4"/>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21">
@@ -2558,7 +2596,9 @@
       <c r="S21" s="4">
         <v>173.229766845703</v>
       </c>
-      <c r="T21" s="4"/>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22">
@@ -2618,7 +2658,9 @@
       <c r="S22" s="4">
         <v>60.2517127990723</v>
       </c>
-      <c r="T22" s="4"/>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23">
@@ -2678,7 +2720,9 @@
       <c r="S23" s="4">
         <v>75.5611114501953</v>
       </c>
-      <c r="T23" s="4"/>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24">
@@ -2738,7 +2782,9 @@
       <c r="S24" s="4">
         <v>125.945777893066</v>
       </c>
-      <c r="T24" s="4"/>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25">
@@ -2798,7 +2844,9 @@
       <c r="S25" s="4">
         <v>114.706954956055</v>
       </c>
-      <c r="T25" s="4"/>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26">
@@ -2858,7 +2906,9 @@
       <c r="S26" s="4">
         <v>114.857383728027</v>
       </c>
-      <c r="T26" s="4"/>
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27">
@@ -2918,7 +2968,9 @@
       <c r="S27" s="4">
         <v>159.524398803711</v>
       </c>
-      <c r="T27" s="4"/>
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28">
@@ -2978,7 +3030,9 @@
       <c r="S28" s="4">
         <v>46.6997604370117</v>
       </c>
-      <c r="T28" s="4"/>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29">
@@ -3038,7 +3092,9 @@
       <c r="S29" s="4">
         <v>211.295608520508</v>
       </c>
-      <c r="T29" s="4"/>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30">
@@ -3098,7 +3154,9 @@
       <c r="S30" s="4">
         <v>182.230224609375</v>
       </c>
-      <c r="T30" s="4"/>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31">
@@ -3158,7 +3216,9 @@
       <c r="S31" s="4">
         <v>23.1609573364258</v>
       </c>
-      <c r="T31" s="4"/>
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32">
@@ -3218,7 +3278,9 @@
       <c r="S32" s="4">
         <v>148.034210205078</v>
       </c>
-      <c r="T32" s="4"/>
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33">
@@ -3278,7 +3340,9 @@
       <c r="S33" s="4">
         <v>227.155319213867</v>
       </c>
-      <c r="T33" s="4"/>
+      <c r="T33" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34">
@@ -3338,7 +3402,9 @@
       <c r="S34" s="4">
         <v>123.713340759277</v>
       </c>
-      <c r="T34" s="4"/>
+      <c r="T34" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35">
@@ -3398,7 +3464,9 @@
       <c r="S35" s="4">
         <v>81.0448532104492</v>
       </c>
-      <c r="T35" s="4"/>
+      <c r="T35" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36">
@@ -3458,7 +3526,9 @@
       <c r="S36" s="4">
         <v>1.63864731788635</v>
       </c>
-      <c r="T36" s="4"/>
+      <c r="T36" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37">
@@ -3518,7 +3588,9 @@
       <c r="S37" s="4">
         <v>50.8250312805176</v>
       </c>
-      <c r="T37" s="4"/>
+      <c r="T37" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38">
@@ -3578,7 +3650,9 @@
       <c r="S38" s="4">
         <v>121.093170166016</v>
       </c>
-      <c r="T38" s="4"/>
+      <c r="T38" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39">
@@ -3638,7 +3712,9 @@
       <c r="S39" s="4">
         <v>142.551879882812</v>
       </c>
-      <c r="T39" s="4"/>
+      <c r="T39" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40">
@@ -3698,7 +3774,9 @@
       <c r="S40" s="4">
         <v>46.6329078674316</v>
       </c>
-      <c r="T40" s="4"/>
+      <c r="T40" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41">
@@ -3758,7 +3836,9 @@
       <c r="S41" s="4">
         <v>107.532585144043</v>
       </c>
-      <c r="T41" s="4"/>
+      <c r="T41" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42">
@@ -3818,7 +3898,9 @@
       <c r="S42" s="4">
         <v>157.827056884766</v>
       </c>
-      <c r="T42" s="4"/>
+      <c r="T42" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43">
@@ -3878,7 +3960,9 @@
       <c r="S43" s="4">
         <v>149.643173217773</v>
       </c>
-      <c r="T43" s="4"/>
+      <c r="T43" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44">
@@ -3938,7 +4022,9 @@
       <c r="S44" s="4">
         <v>61.6762161254883</v>
       </c>
-      <c r="T44" s="4"/>
+      <c r="T44" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45">
@@ -3998,7 +4084,9 @@
       <c r="S45" s="4">
         <v>43.081600189209</v>
       </c>
-      <c r="T45" s="4"/>
+      <c r="T45" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46">
@@ -4058,7 +4146,9 @@
       <c r="S46" s="4">
         <v>72.2024459838867</v>
       </c>
-      <c r="T46" s="4"/>
+      <c r="T46" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47">
@@ -4118,7 +4208,9 @@
       <c r="S47" s="4">
         <v>163.348037719727</v>
       </c>
-      <c r="T47" s="4"/>
+      <c r="T47" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48">
@@ -4178,7 +4270,9 @@
       <c r="S48" s="4">
         <v>132.002044677734</v>
       </c>
-      <c r="T48" s="4"/>
+      <c r="T48" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49">
@@ -4238,7 +4332,9 @@
       <c r="S49" s="4">
         <v>189.508911132812</v>
       </c>
-      <c r="T49" s="4"/>
+      <c r="T49" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50">
@@ -4298,7 +4394,9 @@
       <c r="S50" s="4">
         <v>67.5697021484375</v>
       </c>
-      <c r="T50" s="4"/>
+      <c r="T50" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51">
@@ -4358,7 +4456,9 @@
       <c r="S51" s="4">
         <v>46.8633155822754</v>
       </c>
-      <c r="T51" s="4"/>
+      <c r="T51" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52">
@@ -4418,7 +4518,9 @@
       <c r="S52" s="4">
         <v>170.475402832031</v>
       </c>
-      <c r="T52" s="4"/>
+      <c r="T52" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53">
@@ -4478,7 +4580,9 @@
       <c r="S53" s="4">
         <v>61.7905006408691</v>
       </c>
-      <c r="T53" s="4"/>
+      <c r="T53" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54">
@@ -4538,7 +4642,9 @@
       <c r="S54" s="4">
         <v>58.1993141174316</v>
       </c>
-      <c r="T54" s="4"/>
+      <c r="T54" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55">
@@ -4598,7 +4704,9 @@
       <c r="S55" s="4">
         <v>229.449737548828</v>
       </c>
-      <c r="T55" s="4"/>
+      <c r="T55" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56">
@@ -4658,7 +4766,9 @@
       <c r="S56" s="4">
         <v>129.871520996094</v>
       </c>
-      <c r="T56" s="4"/>
+      <c r="T56" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:20">
       <c r="A57">
@@ -4718,7 +4828,9 @@
       <c r="S57" s="4">
         <v>82.5476608276367</v>
       </c>
-      <c r="T57" s="4"/>
+      <c r="T57" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:20">
       <c r="A58">
@@ -4778,7 +4890,9 @@
       <c r="S58" s="4">
         <v>75.5611114501953</v>
       </c>
-      <c r="T58" s="4"/>
+      <c r="T58" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:20">
       <c r="A59">
@@ -4838,7 +4952,9 @@
       <c r="S59" s="4">
         <v>140.241989135742</v>
       </c>
-      <c r="T59" s="4"/>
+      <c r="T59" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:20">
       <c r="A60">
@@ -4898,7 +5014,9 @@
       <c r="S60" s="4">
         <v>114.706954956055</v>
       </c>
-      <c r="T60" s="4"/>
+      <c r="T60" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:20">
       <c r="A61">
@@ -4958,7 +5076,9 @@
       <c r="S61" s="4">
         <v>73.5340194702148</v>
       </c>
-      <c r="T61" s="4"/>
+      <c r="T61" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62">
@@ -5018,7 +5138,9 @@
       <c r="S62" s="4">
         <v>158.95930480957</v>
       </c>
-      <c r="T62" s="4"/>
+      <c r="T62" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63">
@@ -5078,7 +5200,9 @@
       <c r="S63" s="4">
         <v>103.182189941406</v>
       </c>
-      <c r="T63" s="4"/>
+      <c r="T63" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64">
@@ -5138,7 +5262,9 @@
       <c r="S64" s="4">
         <v>211.295608520508</v>
       </c>
-      <c r="T64" s="4"/>
+      <c r="T64" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65">
@@ -5198,7 +5324,9 @@
       <c r="S65" s="4">
         <v>286.305297851563</v>
       </c>
-      <c r="T65" s="4"/>
+      <c r="T65" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66">
@@ -5258,7 +5386,9 @@
       <c r="S66" s="4">
         <v>59.1602897644043</v>
       </c>
-      <c r="T66" s="4"/>
+      <c r="T66" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67">
@@ -5318,7 +5448,9 @@
       <c r="S67" s="4">
         <v>148.034210205078</v>
       </c>
-      <c r="T67" s="4"/>
+      <c r="T67" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68">
@@ -5378,7 +5510,9 @@
       <c r="S68" s="4">
         <v>174.798919677734</v>
       </c>
-      <c r="T68" s="4"/>
+      <c r="T68" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69">
@@ -5438,7 +5572,9 @@
       <c r="S69" s="4">
         <v>123.713340759277</v>
       </c>
-      <c r="T69" s="4"/>
+      <c r="T69" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70">
@@ -5498,7 +5634,9 @@
       <c r="S70" s="4">
         <v>164.877548217773</v>
       </c>
-      <c r="T70" s="4"/>
+      <c r="T70" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71">
@@ -5558,7 +5696,9 @@
       <c r="S71" s="4">
         <v>2.84505891799927</v>
       </c>
-      <c r="T71" s="4"/>
+      <c r="T71" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:20">
       <c r="A72">
@@ -5618,7 +5758,9 @@
       <c r="S72" s="4">
         <v>84.9030838012695</v>
       </c>
-      <c r="T72" s="4"/>
+      <c r="T72" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73">
@@ -5678,7 +5820,9 @@
       <c r="S73" s="4">
         <v>102.232002258301</v>
       </c>
-      <c r="T73" s="4"/>
+      <c r="T73" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:20">
       <c r="A74">
@@ -5738,7 +5882,9 @@
       <c r="S74" s="4">
         <v>166.49072265625</v>
       </c>
-      <c r="T74" s="4"/>
+      <c r="T74" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:20">
       <c r="A75">
@@ -5798,7 +5944,9 @@
       <c r="S75" s="4">
         <v>123.537559509277</v>
       </c>
-      <c r="T75" s="4"/>
+      <c r="T75" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:20">
       <c r="A76">
@@ -5858,7 +6006,9 @@
       <c r="S76" s="4">
         <v>122.043144226074</v>
       </c>
-      <c r="T76" s="4"/>
+      <c r="T76" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77">
@@ -5918,7 +6068,9 @@
       <c r="S77" s="4">
         <v>204.817047119141</v>
       </c>
-      <c r="T77" s="4"/>
+      <c r="T77" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:20">
       <c r="A78">
@@ -5978,7 +6130,9 @@
       <c r="S78" s="4">
         <v>149.643173217773</v>
       </c>
-      <c r="T78" s="4"/>
+      <c r="T78" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79">
@@ -6038,7 +6192,9 @@
       <c r="S79" s="4">
         <v>73.2987823486328</v>
       </c>
-      <c r="T79" s="4"/>
+      <c r="T79" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:20">
       <c r="A80">
@@ -6098,7 +6254,9 @@
       <c r="S80" s="4">
         <v>82.8937454223633</v>
       </c>
-      <c r="T80" s="4"/>
+      <c r="T80" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:20">
       <c r="A81">
@@ -6158,7 +6316,9 @@
       <c r="S81" s="4">
         <v>112.64574432373</v>
       </c>
-      <c r="T81" s="4"/>
+      <c r="T81" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:20">
       <c r="A82">
@@ -6218,7 +6378,9 @@
       <c r="S82" s="4">
         <v>163.348037719727</v>
       </c>
-      <c r="T82" s="4"/>
+      <c r="T82" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:20">
       <c r="A83">
@@ -6278,7 +6440,9 @@
       <c r="S83" s="4">
         <v>132.002044677734</v>
       </c>
-      <c r="T83" s="4"/>
+      <c r="T83" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:20">
       <c r="A84">
@@ -6338,7 +6502,9 @@
       <c r="S84" s="4">
         <v>169.297256469727</v>
       </c>
-      <c r="T84" s="4"/>
+      <c r="T84" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85">
@@ -6398,7 +6564,9 @@
       <c r="S85" s="4">
         <v>147.403701782227</v>
       </c>
-      <c r="T85" s="4"/>
+      <c r="T85" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86">
@@ -6458,7 +6626,9 @@
       <c r="S86" s="4">
         <v>42.4188270568848</v>
       </c>
-      <c r="T86" s="4"/>
+      <c r="T86" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87">
@@ -6518,7 +6688,9 @@
       <c r="S87" s="4">
         <v>135.836807250977</v>
       </c>
-      <c r="T87" s="4"/>
+      <c r="T87" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88">
@@ -6578,7 +6750,9 @@
       <c r="S88" s="4">
         <v>274.952819824219</v>
       </c>
-      <c r="T88" s="4"/>
+      <c r="T88" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89">
@@ -6638,7 +6812,9 @@
       <c r="S89" s="4">
         <v>109.317008972168</v>
       </c>
-      <c r="T89" s="4"/>
+      <c r="T89" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90">
@@ -6698,7 +6874,9 @@
       <c r="S90" s="4">
         <v>229.449737548828</v>
       </c>
-      <c r="T90" s="4"/>
+      <c r="T90" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:20">
       <c r="A91">
@@ -6758,7 +6936,9 @@
       <c r="S91" s="4">
         <v>132.652206420898</v>
       </c>
-      <c r="T91" s="4"/>
+      <c r="T91" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:20">
       <c r="A92">
@@ -6818,7 +6998,9 @@
       <c r="S92" s="4">
         <v>111.85018157959</v>
       </c>
-      <c r="T92" s="4"/>
+      <c r="T92" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:20">
       <c r="A93">
@@ -6878,7 +7060,9 @@
       <c r="S93" s="4">
         <v>75.5611114501953</v>
       </c>
-      <c r="T93" s="4"/>
+      <c r="T93" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:20">
       <c r="A94">
@@ -6938,7 +7122,9 @@
       <c r="S94" s="4">
         <v>186.139907836914</v>
       </c>
-      <c r="T94" s="4"/>
+      <c r="T94" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:20">
       <c r="A95">
@@ -6998,7 +7184,9 @@
       <c r="S95" s="4">
         <v>169.84162902832</v>
       </c>
-      <c r="T95" s="4"/>
+      <c r="T95" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96">
@@ -7058,7 +7246,9 @@
       <c r="S96" s="4">
         <v>119.766647338867</v>
       </c>
-      <c r="T96" s="4"/>
+      <c r="T96" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:20">
       <c r="A97">
@@ -7118,7 +7308,9 @@
       <c r="S97" s="4">
         <v>158.95930480957</v>
       </c>
-      <c r="T97" s="4"/>
+      <c r="T97" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:20">
       <c r="A98">
@@ -7178,7 +7370,9 @@
       <c r="S98" s="4">
         <v>103.182189941406</v>
       </c>
-      <c r="T98" s="4"/>
+      <c r="T98" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:20">
       <c r="A99">
@@ -7238,7 +7432,9 @@
       <c r="S99" s="4">
         <v>211.295608520508</v>
       </c>
-      <c r="T99" s="4"/>
+      <c r="T99" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:20">
       <c r="A100">
@@ -7298,7 +7494,9 @@
       <c r="S100" s="4">
         <v>286.305297851563</v>
       </c>
-      <c r="T100" s="4"/>
+      <c r="T100" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:20">
       <c r="A101">
@@ -7358,7 +7556,9 @@
       <c r="S101" s="4">
         <v>130.956390380859</v>
       </c>
-      <c r="T101" s="4"/>
+      <c r="T101" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:20">
       <c r="A102">
@@ -7418,7 +7618,9 @@
       <c r="S102" s="4">
         <v>148.034210205078</v>
       </c>
-      <c r="T102" s="4"/>
+      <c r="T102" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:20">
       <c r="A103">
@@ -7478,7 +7680,9 @@
       <c r="S103" s="4">
         <v>276.098602294922</v>
       </c>
-      <c r="T103" s="4"/>
+      <c r="T103" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:20">
       <c r="A104">
@@ -7538,7 +7742,9 @@
       <c r="S104" s="4">
         <v>96.7491073608398</v>
       </c>
-      <c r="T104" s="4"/>
+      <c r="T104" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105">
@@ -7598,7 +7804,9 @@
       <c r="S105" s="4">
         <v>122.254890441895</v>
       </c>
-      <c r="T105" s="4"/>
+      <c r="T105" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:20">
       <c r="A106">
@@ -7658,7 +7866,9 @@
       <c r="S106" s="4">
         <v>6.77274084091187</v>
       </c>
-      <c r="T106" s="4"/>
+      <c r="T106" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:20">
       <c r="A107">
@@ -7718,7 +7928,9 @@
       <c r="S107" s="4">
         <v>84.9030838012695</v>
       </c>
-      <c r="T107" s="4"/>
+      <c r="T107" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:20">
       <c r="A108">
@@ -7778,7 +7990,9 @@
       <c r="S108" s="4">
         <v>65.4008026123047</v>
       </c>
-      <c r="T108" s="4"/>
+      <c r="T108" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:20">
       <c r="A109">
@@ -7838,7 +8052,9 @@
       <c r="S109" s="4">
         <v>166.49072265625</v>
       </c>
-      <c r="T109" s="4"/>
+      <c r="T109" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:20">
       <c r="A110">
@@ -7898,7 +8114,9 @@
       <c r="S110" s="4">
         <v>123.537559509277</v>
       </c>
-      <c r="T110" s="4"/>
+      <c r="T110" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:20">
       <c r="A111">
@@ -7958,7 +8176,9 @@
       <c r="S111" s="4">
         <v>104.055946350098</v>
       </c>
-      <c r="T111" s="4"/>
+      <c r="T111" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:20">
       <c r="A112">
@@ -8018,7 +8238,9 @@
       <c r="S112" s="4">
         <v>204.817047119141</v>
       </c>
-      <c r="T112" s="4"/>
+      <c r="T112" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:20">
       <c r="A113">
@@ -8078,7 +8300,9 @@
       <c r="S113" s="4">
         <v>155.006942749023</v>
       </c>
-      <c r="T113" s="4"/>
+      <c r="T113" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:20">
       <c r="A114">
@@ -8138,7 +8362,9 @@
       <c r="S114" s="4">
         <v>74.0333862304687</v>
       </c>
-      <c r="T114" s="4"/>
+      <c r="T114" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:20">
       <c r="A115">
@@ -8198,7 +8424,9 @@
       <c r="S115" s="4">
         <v>82.3786163330078</v>
       </c>
-      <c r="T115" s="4"/>
+      <c r="T115" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:20">
       <c r="A116">
@@ -8258,7 +8486,9 @@
       <c r="S116" s="4">
         <v>75.0151290893555</v>
       </c>
-      <c r="T116" s="4"/>
+      <c r="T116" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:20">
       <c r="A117">
@@ -8318,7 +8548,9 @@
       <c r="S117" s="4">
         <v>163.348037719727</v>
       </c>
-      <c r="T117" s="4"/>
+      <c r="T117" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:20">
       <c r="A118">
@@ -8378,7 +8610,9 @@
       <c r="S118" s="4">
         <v>98.576416015625</v>
       </c>
-      <c r="T118" s="4"/>
+      <c r="T118" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:20">
       <c r="A119">
@@ -8438,7 +8672,9 @@
       <c r="S119" s="4">
         <v>233.133010864258</v>
       </c>
-      <c r="T119" s="4"/>
+      <c r="T119" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:20">
       <c r="A120">
@@ -8498,7 +8734,9 @@
       <c r="S120" s="4">
         <v>147.403701782227</v>
       </c>
-      <c r="T120" s="4"/>
+      <c r="T120" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:20">
       <c r="A121">
@@ -8558,7 +8796,9 @@
       <c r="S121" s="4">
         <v>112.416007995605</v>
       </c>
-      <c r="T121" s="4"/>
+      <c r="T121" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:20">
       <c r="A122">
@@ -8618,7 +8858,9 @@
       <c r="S122" s="4">
         <v>115.589149475098</v>
       </c>
-      <c r="T122" s="4"/>
+      <c r="T122" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:20">
       <c r="A123">
@@ -8678,7 +8920,9 @@
       <c r="S123" s="4">
         <v>274.952819824219</v>
       </c>
-      <c r="T123" s="4"/>
+      <c r="T123" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:20">
       <c r="A124">
@@ -8738,7 +8982,9 @@
       <c r="S124" s="4">
         <v>132.437881469727</v>
       </c>
-      <c r="T124" s="4"/>
+      <c r="T124" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:20">
       <c r="A125">
@@ -8798,7 +9044,9 @@
       <c r="S125" s="4">
         <v>145.220260620117</v>
       </c>
-      <c r="T125" s="4"/>
+      <c r="T125" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:20">
       <c r="A126">
@@ -8858,7 +9106,9 @@
       <c r="S126" s="4">
         <v>129.701889038086</v>
       </c>
-      <c r="T126" s="4"/>
+      <c r="T126" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:20">
       <c r="A127">
@@ -8918,7 +9168,9 @@
       <c r="S127" s="4">
         <v>111.85018157959</v>
       </c>
-      <c r="T127" s="4"/>
+      <c r="T127" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:20">
       <c r="A128">
@@ -8978,7 +9230,9 @@
       <c r="S128" s="4">
         <v>153.012725830078</v>
       </c>
-      <c r="T128" s="4"/>
+      <c r="T128" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:20">
       <c r="A129">
@@ -9038,7 +9292,9 @@
       <c r="S129" s="4">
         <v>186.139907836914</v>
       </c>
-      <c r="T129" s="4"/>
+      <c r="T129" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:20">
       <c r="A130">
@@ -9098,7 +9354,9 @@
       <c r="S130" s="4">
         <v>133.389175415039</v>
       </c>
-      <c r="T130" s="4"/>
+      <c r="T130" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:20">
       <c r="A131">
@@ -9158,7 +9416,9 @@
       <c r="S131" s="4">
         <v>119.766647338867</v>
       </c>
-      <c r="T131" s="4"/>
+      <c r="T131" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:20">
       <c r="A132">
@@ -9218,7 +9478,9 @@
       <c r="S132" s="4">
         <v>154.678680419922</v>
       </c>
-      <c r="T132" s="4"/>
+      <c r="T132" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:20">
       <c r="A133">
@@ -9278,7 +9540,9 @@
       <c r="S133" s="4">
         <v>82.2431411743164</v>
       </c>
-      <c r="T133" s="4"/>
+      <c r="T133" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:20">
       <c r="A134">
@@ -9338,7 +9602,9 @@
       <c r="S134" s="4">
         <v>146.18132019043</v>
       </c>
-      <c r="T134" s="4"/>
+      <c r="T134" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:20">
       <c r="A135">
@@ -9398,7 +9664,9 @@
       <c r="S135" s="4">
         <v>141.774810791016</v>
       </c>
-      <c r="T135" s="4"/>
+      <c r="T135" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:20">
       <c r="A136">
@@ -9458,7 +9726,9 @@
       <c r="S136" s="4">
         <v>130.956390380859</v>
       </c>
-      <c r="T136" s="4"/>
+      <c r="T136" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:20">
       <c r="A137">
@@ -9518,7 +9788,9 @@
       <c r="S137" s="4">
         <v>148.034210205078</v>
       </c>
-      <c r="T137" s="4"/>
+      <c r="T137" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:20">
       <c r="A138">
@@ -9578,7 +9850,9 @@
       <c r="S138" s="4">
         <v>223.263244628906</v>
       </c>
-      <c r="T138" s="4"/>
+      <c r="T138" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:20">
       <c r="A139">
@@ -9638,7 +9912,9 @@
       <c r="S139" s="4">
         <v>96.7491073608398</v>
       </c>
-      <c r="T139" s="4"/>
+      <c r="T139" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:20">
       <c r="A140">
@@ -9698,7 +9974,9 @@
       <c r="S140" s="4">
         <v>237.060180664062</v>
       </c>
-      <c r="T140" s="4"/>
+      <c r="T140" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:20">
       <c r="A141">
@@ -9758,7 +10036,9 @@
       <c r="S141" s="4">
         <v>5.5990571975708</v>
       </c>
-      <c r="T141" s="4"/>
+      <c r="T141" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:20">
       <c r="A142">
@@ -9818,7 +10098,9 @@
       <c r="S142" s="4">
         <v>74.5484924316406</v>
       </c>
-      <c r="T142" s="4"/>
+      <c r="T142" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:20">
       <c r="A143">
@@ -9878,7 +10160,9 @@
       <c r="S143" s="4">
         <v>43.2357139587402</v>
       </c>
-      <c r="T143" s="4"/>
+      <c r="T143" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:20">
       <c r="A144">
@@ -9938,7 +10222,9 @@
       <c r="S144" s="4">
         <v>93.6263275146484</v>
       </c>
-      <c r="T144" s="4"/>
+      <c r="T144" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:20">
       <c r="A145">
@@ -9998,7 +10284,9 @@
       <c r="S145" s="4">
         <v>123.537559509277</v>
       </c>
-      <c r="T145" s="4"/>
+      <c r="T145" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:20">
       <c r="A146">
@@ -10058,7 +10346,9 @@
       <c r="S146" s="4">
         <v>105.276741027832</v>
       </c>
-      <c r="T146" s="4"/>
+      <c r="T146" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:20">
       <c r="A147">
@@ -10118,7 +10408,9 @@
       <c r="S147" s="4">
         <v>130.236785888672</v>
       </c>
-      <c r="T147" s="4"/>
+      <c r="T147" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:20">
       <c r="A148">
@@ -10178,7 +10470,9 @@
       <c r="S148" s="4">
         <v>143.768371582031</v>
       </c>
-      <c r="T148" s="4"/>
+      <c r="T148" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:20">
       <c r="A149">
@@ -10238,7 +10532,9 @@
       <c r="S149" s="4">
         <v>74.698616027832</v>
       </c>
-      <c r="T149" s="4"/>
+      <c r="T149" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:20">
       <c r="A150">
@@ -10298,7 +10594,9 @@
       <c r="S150" s="4">
         <v>51.5520133972168</v>
       </c>
-      <c r="T150" s="4"/>
+      <c r="T150" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:20">
       <c r="A151">
@@ -10358,7 +10656,9 @@
       <c r="S151" s="4">
         <v>75.0151290893555</v>
       </c>
-      <c r="T151" s="4"/>
+      <c r="T151" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:20">
       <c r="A152">
@@ -10418,7 +10718,9 @@
       <c r="S152" s="4">
         <v>161.622131347656</v>
       </c>
-      <c r="T152" s="4"/>
+      <c r="T152" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:20">
       <c r="A153">
@@ -10478,7 +10780,9 @@
       <c r="S153" s="4">
         <v>131.235214233398</v>
       </c>
-      <c r="T153" s="4"/>
+      <c r="T153" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:20">
       <c r="A154">
@@ -10538,7 +10842,9 @@
       <c r="S154" s="4">
         <v>147.566390991211</v>
       </c>
-      <c r="T154" s="4"/>
+      <c r="T154" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:20">
       <c r="A155">
@@ -10598,7 +10904,9 @@
       <c r="S155" s="4">
         <v>173.13655090332</v>
       </c>
-      <c r="T155" s="4"/>
+      <c r="T155" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:20">
       <c r="A156">
@@ -10658,7 +10966,9 @@
       <c r="S156" s="4">
         <v>88.6375045776367</v>
       </c>
-      <c r="T156" s="4"/>
+      <c r="T156" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:20">
       <c r="A157">
@@ -10718,7 +11028,9 @@
       <c r="S157" s="4">
         <v>109.303497314453</v>
       </c>
-      <c r="T157" s="4"/>
+      <c r="T157" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:20">
       <c r="A158">
@@ -10778,7 +11090,9 @@
       <c r="S158" s="4">
         <v>155.09342956543</v>
       </c>
-      <c r="T158" s="4"/>
+      <c r="T158" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:20">
       <c r="A159">
@@ -10838,7 +11152,9 @@
       <c r="S159" s="4">
         <v>132.437881469727</v>
       </c>
-      <c r="T159" s="4"/>
+      <c r="T159" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:20">
       <c r="A160">
@@ -10898,7 +11214,9 @@
       <c r="S160" s="4">
         <v>129.314697265625</v>
       </c>
-      <c r="T160" s="4"/>
+      <c r="T160" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="161" spans="1:20">
       <c r="A161">
@@ -10958,7 +11276,9 @@
       <c r="S161" s="4">
         <v>156.626342773437</v>
       </c>
-      <c r="T161" s="4"/>
+      <c r="T161" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="162" spans="1:20">
       <c r="A162">
@@ -11018,7 +11338,9 @@
       <c r="S162" s="4">
         <v>183.147689819336</v>
       </c>
-      <c r="T162" s="4"/>
+      <c r="T162" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:20">
       <c r="A163">
@@ -11078,7 +11400,9 @@
       <c r="S163" s="4">
         <v>153.012725830078</v>
       </c>
-      <c r="T163" s="4"/>
+      <c r="T163" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:20">
       <c r="A164">
@@ -11138,7 +11462,9 @@
       <c r="S164" s="4">
         <v>151.12760925293</v>
       </c>
-      <c r="T164" s="4"/>
+      <c r="T164" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="1:20">
       <c r="A165">
@@ -11198,7 +11524,9 @@
       <c r="S165" s="4">
         <v>113.996475219727</v>
       </c>
-      <c r="T165" s="4"/>
+      <c r="T165" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:20">
       <c r="A166">
@@ -11258,7 +11586,9 @@
       <c r="S166" s="4">
         <v>141.712493896484</v>
       </c>
-      <c r="T166" s="4"/>
+      <c r="T166" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:20">
       <c r="A167">
@@ -11318,7 +11648,9 @@
       <c r="S167" s="4">
         <v>134.207901000977</v>
       </c>
-      <c r="T167" s="4"/>
+      <c r="T167" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="1:20">
       <c r="A168">
@@ -11378,7 +11710,9 @@
       <c r="S168" s="4">
         <v>93.5472869873047</v>
       </c>
-      <c r="T168" s="4"/>
+      <c r="T168" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:20">
       <c r="A169">
@@ -11438,7 +11772,9 @@
       <c r="S169" s="4">
         <v>146.18132019043</v>
       </c>
-      <c r="T169" s="4"/>
+      <c r="T169" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:20">
       <c r="A170">
@@ -11498,7 +11834,9 @@
       <c r="S170" s="4">
         <v>95.0668334960937</v>
       </c>
-      <c r="T170" s="4"/>
+      <c r="T170" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:20">
       <c r="A171">
@@ -11558,7 +11896,9 @@
       <c r="S171" s="4">
         <v>130.956390380859</v>
       </c>
-      <c r="T171" s="4"/>
+      <c r="T171" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:20">
       <c r="A172">
@@ -11618,7 +11958,9 @@
       <c r="S172" s="4">
         <v>138.212249755859</v>
       </c>
-      <c r="T172" s="4"/>
+      <c r="T172" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="1:20">
       <c r="A173">
@@ -11678,7 +12020,9 @@
       <c r="S173" s="4">
         <v>201.042098999023</v>
       </c>
-      <c r="T173" s="4"/>
+      <c r="T173" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="1:20">
       <c r="A174">
@@ -11738,7 +12082,9 @@
       <c r="S174" s="4">
         <v>90.2674942016602</v>
       </c>
-      <c r="T174" s="4"/>
+      <c r="T174" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="1:20">
       <c r="A175">
@@ -11798,7 +12144,9 @@
       <c r="S175" s="4">
         <v>130.943481445312</v>
       </c>
-      <c r="T175" s="4"/>
+      <c r="T175" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="1:20">
       <c r="A176">
@@ -11858,7 +12206,9 @@
       <c r="S176" s="4">
         <v>12.2080173492432</v>
       </c>
-      <c r="T176" s="4"/>
+      <c r="T176" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" spans="1:20">
       <c r="A177">
@@ -11918,7 +12268,9 @@
       <c r="S177" s="4">
         <v>69.6616973876953</v>
       </c>
-      <c r="T177" s="4"/>
+      <c r="T177" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="1:20">
       <c r="A178">
@@ -11978,7 +12330,9 @@
       <c r="S178" s="4">
         <v>141.838394165039</v>
       </c>
-      <c r="T178" s="4"/>
+      <c r="T178" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:20">
       <c r="A179">
@@ -12038,7 +12392,9 @@
       <c r="S179" s="4">
         <v>159.990341186523</v>
       </c>
-      <c r="T179" s="4"/>
+      <c r="T179" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" spans="1:20">
       <c r="A180">
@@ -12098,7 +12454,9 @@
       <c r="S180" s="4">
         <v>103.520957946777</v>
       </c>
-      <c r="T180" s="4"/>
+      <c r="T180" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" spans="1:20">
       <c r="A181">
@@ -12158,7 +12516,9 @@
       <c r="S181" s="4">
         <v>105.276741027832</v>
       </c>
-      <c r="T181" s="4"/>
+      <c r="T181" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" spans="1:20">
       <c r="A182">
@@ -12218,7 +12578,9 @@
       <c r="S182" s="4">
         <v>158.986221313477</v>
       </c>
-      <c r="T182" s="4"/>
+      <c r="T182" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="183" spans="1:20">
       <c r="A183">
@@ -12278,7 +12640,9 @@
       <c r="S183" s="4">
         <v>143.768371582031</v>
       </c>
-      <c r="T183" s="4"/>
+      <c r="T183" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="1:20">
       <c r="A184">
@@ -12338,7 +12702,9 @@
       <c r="S184" s="4">
         <v>74.698616027832</v>
       </c>
-      <c r="T184" s="4"/>
+      <c r="T184" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:20">
       <c r="A185">
@@ -12398,7 +12764,9 @@
       <c r="S185" s="4">
         <v>54.1892509460449</v>
       </c>
-      <c r="T185" s="4"/>
+      <c r="T185" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:20">
       <c r="A186">
@@ -12458,7 +12826,9 @@
       <c r="S186" s="4">
         <v>68.548225402832</v>
       </c>
-      <c r="T186" s="4"/>
+      <c r="T186" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="1:20">
       <c r="A187">
@@ -12518,7 +12888,9 @@
       <c r="S187" s="4">
         <v>144.333480834961</v>
       </c>
-      <c r="T187" s="4"/>
+      <c r="T187" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:20">
       <c r="A188">
@@ -12578,7 +12950,9 @@
       <c r="S188" s="4">
         <v>135.881851196289</v>
       </c>
-      <c r="T188" s="4"/>
+      <c r="T188" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="1:20">
       <c r="A189">
@@ -12638,7 +13012,9 @@
       <c r="S189" s="4">
         <v>160.927185058594</v>
       </c>
-      <c r="T189" s="4"/>
+      <c r="T189" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" spans="1:20">
       <c r="A190">
@@ -12698,7 +13074,9 @@
       <c r="S190" s="4">
         <v>173.13655090332</v>
       </c>
-      <c r="T190" s="4"/>
+      <c r="T190" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="1:20">
       <c r="A191">
@@ -12758,7 +13136,9 @@
       <c r="S191" s="4">
         <v>132.191284179687</v>
       </c>
-      <c r="T191" s="4"/>
+      <c r="T191" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="192" spans="1:20">
       <c r="A192">
@@ -12818,7 +13198,9 @@
       <c r="S192" s="4">
         <v>124.860641479492</v>
       </c>
-      <c r="T192" s="4"/>
+      <c r="T192" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="1:20">
       <c r="A193">
@@ -12878,7 +13260,9 @@
       <c r="S193" s="4">
         <v>120.32381439209</v>
       </c>
-      <c r="T193" s="4"/>
+      <c r="T193" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" spans="1:20">
       <c r="A194">
@@ -12938,7 +13322,9 @@
       <c r="S194" s="4">
         <v>79.1034545898437</v>
       </c>
-      <c r="T194" s="4"/>
+      <c r="T194" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="195" spans="1:20">
       <c r="A195">
@@ -12998,7 +13384,9 @@
       <c r="S195" s="4">
         <v>129.314697265625</v>
       </c>
-      <c r="T195" s="4"/>
+      <c r="T195" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" spans="1:20">
       <c r="A196">
@@ -13058,7 +13446,9 @@
       <c r="S196" s="4">
         <v>156.626342773437</v>
       </c>
-      <c r="T196" s="4"/>
+      <c r="T196" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" spans="1:20">
       <c r="A197">
@@ -13118,7 +13508,9 @@
       <c r="S197" s="4">
         <v>208.897430419922</v>
       </c>
-      <c r="T197" s="4"/>
+      <c r="T197" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="198" spans="1:20">
       <c r="A198">
@@ -13178,7 +13570,9 @@
       <c r="S198" s="4">
         <v>65.0489959716797</v>
       </c>
-      <c r="T198" s="4"/>
+      <c r="T198" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" spans="1:20">
       <c r="A199">
@@ -13238,7 +13632,9 @@
       <c r="S199" s="4">
         <v>159.915069580078</v>
       </c>
-      <c r="T199" s="4"/>
+      <c r="T199" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="200" spans="1:20">
       <c r="A200">
@@ -13298,7 +13694,9 @@
       <c r="S200" s="4">
         <v>141.444442749023</v>
       </c>
-      <c r="T200" s="4"/>
+      <c r="T200" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:20">
       <c r="A201">
@@ -13358,7 +13756,9 @@
       <c r="S201" s="4">
         <v>141.712493896484</v>
       </c>
-      <c r="T201" s="4"/>
+      <c r="T201" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" spans="1:20">
       <c r="A202">
@@ -13418,7 +13818,9 @@
       <c r="S202" s="4">
         <v>243.79704284668</v>
       </c>
-      <c r="T202" s="4"/>
+      <c r="T202" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" spans="1:20">
       <c r="A203">
@@ -13478,7 +13880,9 @@
       <c r="S203" s="4">
         <v>64.3250274658203</v>
       </c>
-      <c r="T203" s="4"/>
+      <c r="T203" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="1:20">
       <c r="A204">
@@ -13538,7 +13942,9 @@
       <c r="S204" s="4">
         <v>97.8589859008789</v>
       </c>
-      <c r="T204" s="4"/>
+      <c r="T204" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:20">
       <c r="A205">
@@ -13598,7 +14004,9 @@
       <c r="S205" s="4">
         <v>195.629302978516</v>
       </c>
-      <c r="T205" s="4"/>
+      <c r="T205" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:20">
       <c r="A206">
@@ -13658,7 +14066,9 @@
       <c r="S206" s="4">
         <v>130.956390380859</v>
       </c>
-      <c r="T206" s="4"/>
+      <c r="T206" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="207" spans="1:20">
       <c r="A207">
@@ -13718,7 +14128,9 @@
       <c r="S207" s="4">
         <v>147.493026733398</v>
       </c>
-      <c r="T207" s="4"/>
+      <c r="T207" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" spans="1:20">
       <c r="A208">
@@ -13778,7 +14190,9 @@
       <c r="S208" s="4">
         <v>234.003051757812</v>
       </c>
-      <c r="T208" s="4"/>
+      <c r="T208" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="209" spans="1:20">
       <c r="A209">
@@ -13838,7 +14252,9 @@
       <c r="S209" s="4">
         <v>144.8486328125</v>
       </c>
-      <c r="T209" s="4"/>
+      <c r="T209" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="210" spans="1:20">
       <c r="A210">
@@ -13898,7 +14314,9 @@
       <c r="S210" s="4">
         <v>112.991035461426</v>
       </c>
-      <c r="T210" s="4"/>
+      <c r="T210" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:20">
       <c r="A211">
@@ -13958,7 +14376,9 @@
       <c r="S211" s="4">
         <v>12.2080173492432</v>
       </c>
-      <c r="T211" s="4"/>
+      <c r="T211" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="212" spans="1:20">
       <c r="A212">
@@ -14018,7 +14438,9 @@
       <c r="S212" s="4">
         <v>109.434120178223</v>
       </c>
-      <c r="T212" s="4"/>
+      <c r="T212" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="213" spans="1:20">
       <c r="A213">
@@ -14078,7 +14500,9 @@
       <c r="S213" s="4">
         <v>141.838394165039</v>
       </c>
-      <c r="T213" s="4"/>
+      <c r="T213" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="1:20">
       <c r="A214">
@@ -14138,7 +14562,9 @@
       <c r="S214" s="4">
         <v>159.990341186523</v>
       </c>
-      <c r="T214" s="4"/>
+      <c r="T214" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="215" spans="1:20">
       <c r="A215">
@@ -14198,7 +14624,9 @@
       <c r="S215" s="4">
         <v>103.520957946777</v>
       </c>
-      <c r="T215" s="4"/>
+      <c r="T215" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="216" spans="1:20">
       <c r="A216">
@@ -14258,7 +14686,9 @@
       <c r="S216" s="4">
         <v>146.413360595703</v>
       </c>
-      <c r="T216" s="4"/>
+      <c r="T216" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" spans="1:20">
       <c r="A217">
@@ -14318,7 +14748,9 @@
       <c r="S217" s="4">
         <v>202.208694458008</v>
       </c>
-      <c r="T217" s="4"/>
+      <c r="T217" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="218" spans="1:20">
       <c r="A218">
@@ -14378,7 +14810,9 @@
       <c r="S218" s="4">
         <v>143.768371582031</v>
       </c>
-      <c r="T218" s="4"/>
+      <c r="T218" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" spans="1:20">
       <c r="A219">
@@ -14438,7 +14872,9 @@
       <c r="S219" s="4">
         <v>131.42805480957</v>
       </c>
-      <c r="T219" s="4"/>
+      <c r="T219" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="220" spans="1:20">
       <c r="A220">
@@ -14498,7 +14934,9 @@
       <c r="S220" s="4">
         <v>61.5860977172852</v>
       </c>
-      <c r="T220" s="4"/>
+      <c r="T220" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="1:20">
       <c r="A221">
@@ -14558,7 +14996,9 @@
       <c r="S221" s="4">
         <v>124.212837219238</v>
       </c>
-      <c r="T221" s="4"/>
+      <c r="T221" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="222" spans="1:20">
       <c r="A222">
@@ -14618,7 +15058,9 @@
       <c r="S222" s="4">
         <v>162.401077270508</v>
       </c>
-      <c r="T222" s="4"/>
+      <c r="T222" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="223" spans="1:20">
       <c r="A223">
@@ -14678,7 +15120,9 @@
       <c r="S223" s="4">
         <v>112.082733154297</v>
       </c>
-      <c r="T223" s="4"/>
+      <c r="T223" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="224" spans="1:20">
       <c r="A224">
@@ -14738,7 +15182,9 @@
       <c r="S224" s="4">
         <v>160.927185058594</v>
       </c>
-      <c r="T224" s="4"/>
+      <c r="T224" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="225" spans="1:20">
       <c r="A225">
@@ -14798,7 +15244,9 @@
       <c r="S225" s="4">
         <v>124.722923278809</v>
       </c>
-      <c r="T225" s="4"/>
+      <c r="T225" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="226" spans="1:20">
       <c r="A226">
@@ -14858,7 +15306,9 @@
       <c r="S226" s="4">
         <v>132.191284179687</v>
       </c>
-      <c r="T226" s="4"/>
+      <c r="T226" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="227" spans="1:20">
       <c r="A227">
@@ -14918,7 +15368,9 @@
       <c r="S227" s="4">
         <v>129.573928833008</v>
       </c>
-      <c r="T227" s="4"/>
+      <c r="T227" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="228" spans="1:20">
       <c r="A228">
@@ -14978,7 +15430,9 @@
       <c r="S228" s="4">
         <v>186.774444580078</v>
       </c>
-      <c r="T228" s="4"/>
+      <c r="T228" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="229" spans="1:20">
       <c r="A229">
@@ -15038,7 +15492,9 @@
       <c r="S229" s="4">
         <v>79.1034545898437</v>
       </c>
-      <c r="T229" s="4"/>
+      <c r="T229" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="230" spans="1:20">
       <c r="A230">
@@ -15098,7 +15554,9 @@
       <c r="S230" s="4">
         <v>168.645355224609</v>
       </c>
-      <c r="T230" s="4"/>
+      <c r="T230" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" spans="1:20">
       <c r="A231">
@@ -15158,7 +15616,9 @@
       <c r="S231" s="4">
         <v>265.081176757813</v>
       </c>
-      <c r="T231" s="4"/>
+      <c r="T231" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" spans="1:20">
       <c r="A232">
@@ -15218,7 +15678,9 @@
       <c r="S232" s="4">
         <v>183.147689819336</v>
       </c>
-      <c r="T232" s="4"/>
+      <c r="T232" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="233" spans="1:20">
       <c r="A233">
@@ -15278,7 +15740,9 @@
       <c r="S233" s="4">
         <v>168.668106079102</v>
       </c>
-      <c r="T233" s="4"/>
+      <c r="T233" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="1:20">
       <c r="A234">
@@ -15338,7 +15802,9 @@
       <c r="S234" s="4">
         <v>192.43815612793</v>
       </c>
-      <c r="T234" s="4"/>
+      <c r="T234" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="1:20">
       <c r="A235">
@@ -15398,7 +15864,9 @@
       <c r="S235" s="4">
         <v>155.910980224609</v>
       </c>
-      <c r="T235" s="4"/>
+      <c r="T235" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="236" spans="1:20">
       <c r="A236">
@@ -15458,7 +15926,9 @@
       <c r="S236" s="4">
         <v>130.857986450195</v>
       </c>
-      <c r="T236" s="4"/>
+      <c r="T236" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="237" spans="1:20">
       <c r="A237">
@@ -15518,7 +15988,9 @@
       <c r="S237" s="4">
         <v>153.482162475586</v>
       </c>
-      <c r="T237" s="4"/>
+      <c r="T237" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="238" spans="1:20">
       <c r="A238">
@@ -15578,7 +16050,9 @@
       <c r="S238" s="4">
         <v>165.491027832031</v>
       </c>
-      <c r="T238" s="4"/>
+      <c r="T238" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="239" spans="1:20">
       <c r="A239">
@@ -15638,7 +16112,9 @@
       <c r="S239" s="4">
         <v>139.489273071289</v>
       </c>
-      <c r="T239" s="4"/>
+      <c r="T239" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="240" spans="1:20">
       <c r="A240">
@@ -15698,7 +16174,9 @@
       <c r="S240" s="4">
         <v>195.629302978516</v>
       </c>
-      <c r="T240" s="4"/>
+      <c r="T240" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="241" spans="1:20">
       <c r="A241">
@@ -15758,7 +16236,9 @@
       <c r="S241" s="4">
         <v>100.266105651855</v>
       </c>
-      <c r="T241" s="4"/>
+      <c r="T241" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="242" spans="1:20">
       <c r="A242">
@@ -15818,7 +16298,9 @@
       <c r="S242" s="4">
         <v>147.493026733398</v>
       </c>
-      <c r="T242" s="4"/>
+      <c r="T242" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="243" spans="1:20">
       <c r="A243">
@@ -15878,7 +16360,9 @@
       <c r="S243" s="4">
         <v>234.003051757812</v>
       </c>
-      <c r="T243" s="4"/>
+      <c r="T243" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="244" spans="1:20">
       <c r="A244">
@@ -15938,7 +16422,9 @@
       <c r="S244" s="4">
         <v>144.8486328125</v>
       </c>
-      <c r="T244" s="4"/>
+      <c r="T244" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="245" spans="1:20">
       <c r="A245">
@@ -15998,7 +16484,9 @@
       <c r="S245" s="4">
         <v>186.310531616211</v>
       </c>
-      <c r="T245" s="4"/>
+      <c r="T245" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="246" spans="1:20">
       <c r="A246">
@@ -16058,7 +16546,9 @@
       <c r="S246" s="4">
         <v>6.35287094116211</v>
       </c>
-      <c r="T246" s="4"/>
+      <c r="T246" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="247" spans="1:20">
       <c r="A247">
@@ -16118,7 +16608,9 @@
       <c r="S247" s="4">
         <v>211.669067382812</v>
       </c>
-      <c r="T247" s="4"/>
+      <c r="T247" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="248" spans="1:20">
       <c r="A248">
@@ -16178,7 +16670,9 @@
       <c r="S248" s="4">
         <v>141.838394165039</v>
       </c>
-      <c r="T248" s="4"/>
+      <c r="T248" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="249" spans="1:20">
       <c r="A249">
@@ -16238,7 +16732,9 @@
       <c r="S249" s="4">
         <v>138.225509643555</v>
       </c>
-      <c r="T249" s="4"/>
+      <c r="T249" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="250" spans="1:20">
       <c r="A250">
@@ -16298,7 +16794,9 @@
       <c r="S250" s="4">
         <v>103.520957946777</v>
       </c>
-      <c r="T250" s="4"/>
+      <c r="T250" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="251" spans="1:20">
       <c r="A251">
@@ -16358,7 +16856,9 @@
       <c r="S251" s="4">
         <v>116.344886779785</v>
       </c>
-      <c r="T251" s="4"/>
+      <c r="T251" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="252" spans="1:20">
       <c r="A252">
@@ -16418,7 +16918,9 @@
       <c r="S252" s="4">
         <v>202.208694458008</v>
       </c>
-      <c r="T252" s="4"/>
+      <c r="T252" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:20">
       <c r="A253">
@@ -16478,7 +16980,9 @@
       <c r="S253" s="4">
         <v>127.60661315918</v>
       </c>
-      <c r="T253" s="4"/>
+      <c r="T253" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" spans="1:20">
       <c r="A254">
@@ -16538,7 +17042,9 @@
       <c r="S254" s="4">
         <v>131.42805480957</v>
       </c>
-      <c r="T254" s="4"/>
+      <c r="T254" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" spans="1:20">
       <c r="A255">
@@ -16598,7 +17104,9 @@
       <c r="S255" s="4">
         <v>84.270881652832</v>
       </c>
-      <c r="T255" s="4"/>
+      <c r="T255" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="256" spans="1:20">
       <c r="A256">
@@ -16658,7 +17166,9 @@
       <c r="S256" s="4">
         <v>84.2479095458984</v>
       </c>
-      <c r="T256" s="4"/>
+      <c r="T256" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="257" spans="1:20">
       <c r="A257">
@@ -16718,7 +17228,9 @@
       <c r="S257" s="4">
         <v>118.993553161621</v>
       </c>
-      <c r="T257" s="4"/>
+      <c r="T257" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="258" spans="1:20">
       <c r="A258">
@@ -16778,7 +17290,9 @@
       <c r="S258" s="4">
         <v>103.524925231934</v>
       </c>
-      <c r="T258" s="4"/>
+      <c r="T258" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="1:20">
       <c r="A259">
@@ -16838,7 +17352,9 @@
       <c r="S259" s="4">
         <v>160.927185058594</v>
       </c>
-      <c r="T259" s="4"/>
+      <c r="T259" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="260" spans="1:20">
       <c r="A260">
@@ -16898,7 +17414,9 @@
       <c r="S260" s="4">
         <v>253.467910766602</v>
       </c>
-      <c r="T260" s="4"/>
+      <c r="T260" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="261" spans="1:20">
       <c r="A261">
@@ -16958,7 +17476,9 @@
       <c r="S261" s="4">
         <v>65.9664840698242</v>
       </c>
-      <c r="T261" s="4"/>
+      <c r="T261" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="262" spans="1:20">
       <c r="A262">
@@ -17018,7 +17538,9 @@
       <c r="S262" s="4">
         <v>126.932411193848</v>
       </c>
-      <c r="T262" s="4"/>
+      <c r="T262" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="263" spans="1:20">
       <c r="A263">
@@ -17078,7 +17600,9 @@
       <c r="S263" s="4">
         <v>148.209884643555</v>
       </c>
-      <c r="T263" s="4"/>
+      <c r="T263" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="264" spans="1:20">
       <c r="A264">
@@ -17138,7 +17662,9 @@
       <c r="S264" s="4">
         <v>114.209854125977</v>
       </c>
-      <c r="T264" s="4"/>
+      <c r="T264" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="265" spans="1:20">
       <c r="A265">
@@ -17198,7 +17724,9 @@
       <c r="S265" s="4">
         <v>154.869476318359</v>
       </c>
-      <c r="T265" s="4"/>
+      <c r="T265" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="1:20">
       <c r="A266">
@@ -17258,7 +17786,9 @@
       <c r="S266" s="4">
         <v>181.639572143555</v>
       </c>
-      <c r="T266" s="4"/>
+      <c r="T266" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:20">
       <c r="A267">
@@ -17318,7 +17848,9 @@
       <c r="S267" s="4">
         <v>105.192489624023</v>
       </c>
-      <c r="T267" s="4"/>
+      <c r="T267" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" spans="1:20">
       <c r="A268">
@@ -17378,7 +17910,9 @@
       <c r="S268" s="4">
         <v>94.4396667480469</v>
       </c>
-      <c r="T268" s="4"/>
+      <c r="T268" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="269" spans="1:20">
       <c r="A269">
@@ -17438,7 +17972,9 @@
       <c r="S269" s="4">
         <v>178.809646606445</v>
       </c>
-      <c r="T269" s="4"/>
+      <c r="T269" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="270" spans="1:20">
       <c r="A270">
@@ -17498,7 +18034,9 @@
       <c r="S270" s="4">
         <v>129.587097167969</v>
       </c>
-      <c r="T270" s="4"/>
+      <c r="T270" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="271" spans="1:20">
       <c r="A271">
@@ -17558,7 +18096,9 @@
       <c r="S271" s="4">
         <v>121.219276428223</v>
       </c>
-      <c r="T271" s="4"/>
+      <c r="T271" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="272" spans="1:20">
       <c r="A272">
@@ -17618,7 +18158,9 @@
       <c r="S272" s="4">
         <v>165.783721923828</v>
       </c>
-      <c r="T272" s="4"/>
+      <c r="T272" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="273" spans="1:20">
       <c r="A273">
@@ -17678,7 +18220,9 @@
       <c r="S273" s="4">
         <v>91.953727722168</v>
       </c>
-      <c r="T273" s="4"/>
+      <c r="T273" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="274" spans="1:20">
       <c r="A274">
@@ -17738,7 +18282,9 @@
       <c r="S274" s="4">
         <v>121.259346008301</v>
       </c>
-      <c r="T274" s="4"/>
+      <c r="T274" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="275" spans="1:20">
       <c r="A275">
@@ -17798,7 +18344,9 @@
       <c r="S275" s="4">
         <v>195.629302978516</v>
       </c>
-      <c r="T275" s="4"/>
+      <c r="T275" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="276" spans="1:20">
       <c r="A276">
@@ -17858,7 +18406,9 @@
       <c r="S276" s="4">
         <v>127.435928344727</v>
       </c>
-      <c r="T276" s="4"/>
+      <c r="T276" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="277" spans="1:20">
       <c r="A277">
@@ -17918,7 +18468,9 @@
       <c r="S277" s="4">
         <v>147.493026733398</v>
       </c>
-      <c r="T277" s="4"/>
+      <c r="T277" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="278" spans="1:20">
       <c r="A278">
@@ -17978,7 +18530,9 @@
       <c r="S278" s="4">
         <v>234.003051757812</v>
       </c>
-      <c r="T278" s="4"/>
+      <c r="T278" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="279" spans="1:20">
       <c r="A279">
@@ -18038,7 +18592,9 @@
       <c r="S279" s="4">
         <v>144.8486328125</v>
       </c>
-      <c r="T279" s="4"/>
+      <c r="T279" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="280" spans="1:20">
       <c r="A280">
@@ -18098,7 +18654,9 @@
       <c r="S280" s="4">
         <v>132.591186523437</v>
       </c>
-      <c r="T280" s="4"/>
+      <c r="T280" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="281" spans="1:20">
       <c r="A281">
@@ -18158,7 +18716,9 @@
       <c r="S281" s="4">
         <v>12.4728183746338</v>
       </c>
-      <c r="T281" s="4"/>
+      <c r="T281" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" spans="1:20">
       <c r="A282">
@@ -18218,7 +18778,9 @@
       <c r="S282" s="4">
         <v>109.434120178223</v>
       </c>
-      <c r="T282" s="4"/>
+      <c r="T282" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="283" spans="1:20">
       <c r="A283">
@@ -18278,7 +18840,9 @@
       <c r="S283" s="4">
         <v>141.838394165039</v>
       </c>
-      <c r="T283" s="4"/>
+      <c r="T283" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" spans="1:20">
       <c r="A284">
@@ -18338,7 +18902,9 @@
       <c r="S284" s="4">
         <v>138.225509643555</v>
       </c>
-      <c r="T284" s="4"/>
+      <c r="T284" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="285" spans="1:20">
       <c r="A285">
@@ -18398,7 +18964,9 @@
       <c r="S285" s="4">
         <v>103.520957946777</v>
       </c>
-      <c r="T285" s="4"/>
+      <c r="T285" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="286" spans="1:20">
       <c r="A286">
@@ -18458,7 +19026,9 @@
       <c r="S286" s="4">
         <v>113.371559143066</v>
       </c>
-      <c r="T286" s="4"/>
+      <c r="T286" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="287" spans="1:20">
       <c r="A287">
@@ -18518,7 +19088,9 @@
       <c r="S287" s="4">
         <v>202.208694458008</v>
       </c>
-      <c r="T287" s="4"/>
+      <c r="T287" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="288" spans="1:20">
       <c r="A288">
@@ -18578,7 +19150,9 @@
       <c r="S288" s="4">
         <v>133.190368652344</v>
       </c>
-      <c r="T288" s="4"/>
+      <c r="T288" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="289" spans="1:20">
       <c r="A289">
@@ -18638,7 +19212,9 @@
       <c r="S289" s="4">
         <v>99.7056427001953</v>
       </c>
-      <c r="T289" s="4"/>
+      <c r="T289" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="290" spans="1:20">
       <c r="A290">
@@ -18698,7 +19274,9 @@
       <c r="S290" s="4">
         <v>84.270881652832</v>
       </c>
-      <c r="T290" s="4"/>
+      <c r="T290" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="291" spans="1:20">
       <c r="A291">
@@ -18758,7 +19336,9 @@
       <c r="S291" s="4">
         <v>79.3125991821289</v>
       </c>
-      <c r="T291" s="4"/>
+      <c r="T291" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="1:20">
       <c r="A292">
@@ -18818,7 +19398,9 @@
       <c r="S292" s="4">
         <v>118.993553161621</v>
       </c>
-      <c r="T292" s="4"/>
+      <c r="T292" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:20">
       <c r="A293">
@@ -18878,7 +19460,9 @@
       <c r="S293" s="4">
         <v>150.666122436523</v>
       </c>
-      <c r="T293" s="4"/>
+      <c r="T293" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="294" spans="1:20">
       <c r="A294">
@@ -18938,7 +19522,9 @@
       <c r="S294" s="4">
         <v>159.066055297852</v>
       </c>
-      <c r="T294" s="4"/>
+      <c r="T294" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="295" spans="1:20">
       <c r="A295">
@@ -18998,7 +19584,9 @@
       <c r="S295" s="4">
         <v>124.722923278809</v>
       </c>
-      <c r="T295" s="4"/>
+      <c r="T295" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="296" spans="1:20">
       <c r="A296">
@@ -19058,7 +19646,9 @@
       <c r="S296" s="4">
         <v>60.698673248291</v>
       </c>
-      <c r="T296" s="4"/>
+      <c r="T296" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="297" spans="1:20">
       <c r="A297">
@@ -19118,7 +19708,9 @@
       <c r="S297" s="4">
         <v>126.932411193848</v>
       </c>
-      <c r="T297" s="4"/>
+      <c r="T297" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="298" spans="1:20">
       <c r="A298">
@@ -19178,7 +19770,9 @@
       <c r="S298" s="4">
         <v>252.078826904297</v>
       </c>
-      <c r="T298" s="4"/>
+      <c r="T298" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="299" spans="1:20">
       <c r="A299">
@@ -19238,7 +19832,9 @@
       <c r="S299" s="4">
         <v>103.030349731445</v>
       </c>
-      <c r="T299" s="4"/>
+      <c r="T299" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="300" spans="1:20">
       <c r="A300">
@@ -19298,7 +19894,9 @@
       <c r="S300" s="4">
         <v>163.028213500977</v>
       </c>
-      <c r="T300" s="4"/>
+      <c r="T300" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="301" spans="1:20">
       <c r="A301">
@@ -19358,7 +19956,9 @@
       <c r="S301" s="4">
         <v>212.583679199219</v>
       </c>
-      <c r="T301" s="4"/>
+      <c r="T301" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="302" spans="1:20">
       <c r="A302">
@@ -19418,7 +20018,9 @@
       <c r="S302" s="4">
         <v>98.3986129760742</v>
       </c>
-      <c r="T302" s="4"/>
+      <c r="T302" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="303" spans="1:20">
       <c r="A303">
@@ -19478,7 +20080,9 @@
       <c r="S303" s="4">
         <v>235.173690795898</v>
       </c>
-      <c r="T303" s="4"/>
+      <c r="T303" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="304" spans="1:20">
       <c r="A304">
@@ -19538,7 +20142,9 @@
       <c r="S304" s="4">
         <v>159.915069580078</v>
       </c>
-      <c r="T304" s="4"/>
+      <c r="T304" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="305" spans="1:20">
       <c r="A305">
@@ -19598,7 +20204,9 @@
       <c r="S305" s="4">
         <v>129.957885742187</v>
       </c>
-      <c r="T305" s="4"/>
+      <c r="T305" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="306" spans="1:20">
       <c r="A306">
@@ -19658,7 +20266,9 @@
       <c r="S306" s="4">
         <v>121.961952209473</v>
       </c>
-      <c r="T306" s="4"/>
+      <c r="T306" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="307" spans="1:20">
       <c r="A307">
@@ -19718,7 +20328,9 @@
       <c r="S307" s="4">
         <v>165.783721923828</v>
       </c>
-      <c r="T307" s="4"/>
+      <c r="T307" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="308" spans="1:20">
       <c r="A308">
@@ -19778,7 +20390,9 @@
       <c r="S308" s="4">
         <v>90.9048461914062</v>
       </c>
-      <c r="T308" s="4"/>
+      <c r="T308" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="309" spans="1:20">
       <c r="A309">
@@ -19838,7 +20452,9 @@
       <c r="S309" s="4">
         <v>102.629150390625</v>
       </c>
-      <c r="T309" s="4"/>
+      <c r="T309" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="310" spans="1:20">
       <c r="A310">
@@ -19898,7 +20514,9 @@
       <c r="S310" s="4">
         <v>195.629302978516</v>
       </c>
-      <c r="T310" s="4"/>
+      <c r="T310" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="311" spans="1:20">
       <c r="A311">
@@ -19958,7 +20576,9 @@
       <c r="S311" s="4">
         <v>127.435928344727</v>
       </c>
-      <c r="T311" s="4"/>
+      <c r="T311" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="312" spans="1:20">
       <c r="A312">
@@ -20018,7 +20638,9 @@
       <c r="S312" s="4">
         <v>142.76106262207</v>
       </c>
-      <c r="T312" s="4"/>
+      <c r="T312" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="313" spans="1:20">
       <c r="A313">
@@ -20078,7 +20700,9 @@
       <c r="S313" s="4">
         <v>149.170562744141</v>
       </c>
-      <c r="T313" s="4"/>
+      <c r="T313" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="314" spans="1:20">
       <c r="A314">
@@ -20138,7 +20762,9 @@
       <c r="S314" s="4">
         <v>144.8486328125</v>
       </c>
-      <c r="T314" s="4"/>
+      <c r="T314" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" spans="1:20">
       <c r="A315">
@@ -20198,7 +20824,9 @@
       <c r="S315" s="4">
         <v>132.591186523437</v>
       </c>
-      <c r="T315" s="4"/>
+      <c r="T315" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="316" spans="1:20">
       <c r="A316">
@@ -20258,7 +20886,9 @@
       <c r="S316" s="4">
         <v>10.6781883239746</v>
       </c>
-      <c r="T316" s="4"/>
+      <c r="T316" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="317" spans="1:20">
       <c r="A317">
@@ -20318,7 +20948,9 @@
       <c r="S317" s="4">
         <v>44.6946105957031</v>
       </c>
-      <c r="T317" s="4"/>
+      <c r="T317" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="318" spans="1:20">
       <c r="A318">
@@ -20378,7 +21010,9 @@
       <c r="S318" s="4">
         <v>141.838394165039</v>
       </c>
-      <c r="T318" s="4"/>
+      <c r="T318" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="319" spans="1:20">
       <c r="A319">
@@ -20438,7 +21072,9 @@
       <c r="S319" s="4">
         <v>129.673629760742</v>
       </c>
-      <c r="T319" s="4"/>
+      <c r="T319" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" spans="1:20">
       <c r="A320">
@@ -20498,7 +21134,9 @@
       <c r="S320" s="4">
         <v>103.520957946777</v>
       </c>
-      <c r="T320" s="4"/>
+      <c r="T320" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="321" spans="1:20">
       <c r="A321">
@@ -20558,7 +21196,9 @@
       <c r="S321" s="4">
         <v>113.371559143066</v>
       </c>
-      <c r="T321" s="4"/>
+      <c r="T321" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="322" spans="1:20">
       <c r="A322">
@@ -20618,7 +21258,9 @@
       <c r="S322" s="4">
         <v>196.777053833008</v>
       </c>
-      <c r="T322" s="4"/>
+      <c r="T322" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="323" spans="1:20">
       <c r="A323">
@@ -20678,7 +21320,9 @@
       <c r="S323" s="4">
         <v>163.421524047852</v>
       </c>
-      <c r="T323" s="4"/>
+      <c r="T323" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="324" spans="1:20">
       <c r="A324">
@@ -20738,7 +21382,9 @@
       <c r="S324" s="4">
         <v>80.5024032592773</v>
       </c>
-      <c r="T324" s="4"/>
+      <c r="T324" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="325" spans="1:20">
       <c r="A325">
@@ -20798,7 +21444,9 @@
       <c r="S325" s="4">
         <v>73.9317321777344</v>
       </c>
-      <c r="T325" s="4"/>
+      <c r="T325" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="326" spans="1:20">
       <c r="A326">
@@ -20858,7 +21506,9 @@
       <c r="S326" s="4">
         <v>66.0240859985352</v>
       </c>
-      <c r="T326" s="4"/>
+      <c r="T326" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="327" spans="1:20">
       <c r="A327">
@@ -20918,7 +21568,9 @@
       <c r="S327" s="4">
         <v>143.189956665039</v>
       </c>
-      <c r="T327" s="4"/>
+      <c r="T327" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="328" spans="1:20">
       <c r="A328">
@@ -20978,7 +21630,9 @@
       <c r="S328" s="4">
         <v>86.1152267456055</v>
       </c>
-      <c r="T328" s="4"/>
+      <c r="T328" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="329" spans="1:20">
       <c r="A329">
@@ -21038,7 +21692,9 @@
       <c r="S329" s="4">
         <v>164.467895507812</v>
       </c>
-      <c r="T329" s="4"/>
+      <c r="T329" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="330" spans="1:20">
       <c r="A330">
@@ -21098,7 +21754,9 @@
       <c r="S330" s="4">
         <v>52.702449798584</v>
       </c>
-      <c r="T330" s="4"/>
+      <c r="T330" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="331" spans="1:20">
       <c r="A331">
@@ -21158,7 +21816,9 @@
       <c r="S331" s="4">
         <v>32.7733421325684</v>
       </c>
-      <c r="T331" s="4"/>
+      <c r="T331" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="332" spans="1:20">
       <c r="A332">
@@ -21218,7 +21878,9 @@
       <c r="S332" s="4">
         <v>136.607360839844</v>
       </c>
-      <c r="T332" s="4"/>
+      <c r="T332" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="333" spans="1:20">
       <c r="A333">
@@ -21278,7 +21940,9 @@
       <c r="S333" s="4">
         <v>89.385368347168</v>
       </c>
-      <c r="T333" s="4"/>
+      <c r="T333" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="334" spans="1:20">
       <c r="A334">
@@ -21338,7 +22002,9 @@
       <c r="S334" s="4">
         <v>103.030349731445</v>
       </c>
-      <c r="T334" s="4"/>
+      <c r="T334" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="335" spans="1:20">
       <c r="A335">
@@ -21398,7 +22064,9 @@
       <c r="S335" s="4">
         <v>154.869476318359</v>
       </c>
-      <c r="T335" s="4"/>
+      <c r="T335" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="336" spans="1:20">
       <c r="A336">
@@ -21458,7 +22126,9 @@
       <c r="S336" s="4">
         <v>212.583679199219</v>
       </c>
-      <c r="T336" s="4"/>
+      <c r="T336" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="337" spans="1:20">
       <c r="A337">
@@ -21518,7 +22188,9 @@
       <c r="S337" s="4">
         <v>244.776824951172</v>
       </c>
-      <c r="T337" s="4"/>
+      <c r="T337" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="338" spans="1:20">
       <c r="A338">
@@ -21578,7 +22250,9 @@
       <c r="S338" s="4">
         <v>114.47705078125</v>
       </c>
-      <c r="T338" s="4"/>
+      <c r="T338" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="339" spans="1:20">
       <c r="A339">
@@ -21638,7 +22312,9 @@
       <c r="S339" s="4">
         <v>173.320663452148</v>
       </c>
-      <c r="T339" s="4"/>
+      <c r="T339" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="340" spans="1:20">
       <c r="A340">
@@ -21698,7 +22374,9 @@
       <c r="S340" s="4">
         <v>171.113861083984</v>
       </c>
-      <c r="T340" s="4"/>
+      <c r="T340" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="341" spans="1:20">
       <c r="A341">
@@ -21758,7 +22436,9 @@
       <c r="S341" s="4">
         <v>162.389694213867</v>
       </c>
-      <c r="T341" s="4"/>
+      <c r="T341" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="342" spans="1:20">
       <c r="A342">
@@ -21818,7 +22498,9 @@
       <c r="S342" s="4">
         <v>109.054298400879</v>
       </c>
-      <c r="T342" s="4"/>
+      <c r="T342" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="343" spans="1:20">
       <c r="A343">
@@ -21878,7 +22560,9 @@
       <c r="S343" s="4">
         <v>67.5168685913086</v>
       </c>
-      <c r="T343" s="4"/>
+      <c r="T343" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="344" spans="1:20">
       <c r="A344">
@@ -21938,7 +22622,9 @@
       <c r="S344" s="4">
         <v>102.629150390625</v>
       </c>
-      <c r="T344" s="4"/>
+      <c r="T344" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="345" spans="1:20">
       <c r="A345">
@@ -21998,7 +22684,9 @@
       <c r="S345" s="4">
         <v>195.629302978516</v>
       </c>
-      <c r="T345" s="4"/>
+      <c r="T345" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="346" spans="1:20">
       <c r="A346">
@@ -22058,7 +22746,9 @@
       <c r="S346" s="4">
         <v>108.798118591309</v>
       </c>
-      <c r="T346" s="4"/>
+      <c r="T346" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="347" spans="1:20">
       <c r="A347">
@@ -22118,7 +22808,9 @@
       <c r="S347" s="4">
         <v>141.908401489258</v>
       </c>
-      <c r="T347" s="4"/>
+      <c r="T347" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="348" spans="1:20">
       <c r="A348">
@@ -22178,7 +22870,9 @@
       <c r="S348" s="4">
         <v>149.170562744141</v>
       </c>
-      <c r="T348" s="4"/>
+      <c r="T348" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="349" spans="1:20">
       <c r="A349">
@@ -22238,7 +22932,9 @@
       <c r="S349" s="4">
         <v>144.8486328125</v>
       </c>
-      <c r="T349" s="4"/>
+      <c r="T349" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="350" spans="1:20">
       <c r="A350">
@@ -22298,7 +22994,9 @@
       <c r="S350" s="4">
         <v>72.4124145507812</v>
       </c>
-      <c r="T350" s="4"/>
+      <c r="T350" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="351" spans="1:20">
       <c r="A351">
@@ -22358,7 +23056,9 @@
       <c r="S351" s="4">
         <v>18.223030090332</v>
       </c>
-      <c r="T351" s="4"/>
+      <c r="T351" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="352" spans="1:20">
       <c r="A352">
@@ -22418,7 +23118,9 @@
       <c r="S352" s="4">
         <v>74.1139373779297</v>
       </c>
-      <c r="T352" s="4"/>
+      <c r="T352" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="353" spans="1:20">
       <c r="A353">
@@ -22478,7 +23180,9 @@
       <c r="S353" s="4">
         <v>82.5714645385742</v>
       </c>
-      <c r="T353" s="4"/>
+      <c r="T353" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="354" spans="1:20">
       <c r="A354">
@@ -22538,7 +23242,9 @@
       <c r="S354" s="4">
         <v>106.849555969238</v>
       </c>
-      <c r="T354" s="4"/>
+      <c r="T354" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="355" spans="1:20">
       <c r="A355">
@@ -22598,7 +23304,9 @@
       <c r="S355" s="4">
         <v>45.776123046875</v>
       </c>
-      <c r="T355" s="4"/>
+      <c r="T355" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="356" spans="1:20">
       <c r="A356">
@@ -22658,7 +23366,9 @@
       <c r="S356" s="4">
         <v>68.599609375</v>
       </c>
-      <c r="T356" s="4"/>
+      <c r="T356" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="357" spans="1:20">
       <c r="A357">
@@ -22718,7 +23428,9 @@
       <c r="S357" s="4">
         <v>142.157516479492</v>
       </c>
-      <c r="T357" s="4"/>
+      <c r="T357" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="358" spans="1:20">
       <c r="A358">
@@ -22778,7 +23490,9 @@
       <c r="S358" s="4">
         <v>68.4542922973633</v>
       </c>
-      <c r="T358" s="4"/>
+      <c r="T358" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="359" spans="1:20">
       <c r="A359">
@@ -22838,7 +23552,9 @@
       <c r="S359" s="4">
         <v>84.2479782104492</v>
       </c>
-      <c r="T359" s="4"/>
+      <c r="T359" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="360" spans="1:20">
       <c r="A360">
@@ -22898,7 +23614,9 @@
       <c r="S360" s="4">
         <v>46.660457611084</v>
       </c>
-      <c r="T360" s="4"/>
+      <c r="T360" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="361" spans="1:20">
       <c r="A361">
@@ -22958,7 +23676,9 @@
       <c r="S361" s="4">
         <v>41.5840759277344</v>
       </c>
-      <c r="T361" s="4"/>
+      <c r="T361" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="362" spans="1:20">
       <c r="A362">
@@ -23018,7 +23738,9 @@
       <c r="S362" s="4">
         <v>94.9152374267578</v>
       </c>
-      <c r="T362" s="4"/>
+      <c r="T362" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="363" spans="1:20">
       <c r="A363">
@@ -23078,7 +23800,9 @@
       <c r="S363" s="4">
         <v>61.6311531066895</v>
       </c>
-      <c r="T363" s="4"/>
+      <c r="T363" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="364" spans="1:20">
       <c r="A364">
@@ -23138,7 +23862,9 @@
       <c r="S364" s="4">
         <v>133.03645324707</v>
       </c>
-      <c r="T364" s="4"/>
+      <c r="T364" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="365" spans="1:20">
       <c r="A365">
@@ -23198,7 +23924,9 @@
       <c r="S365" s="4">
         <v>100.572914123535</v>
       </c>
-      <c r="T365" s="4"/>
+      <c r="T365" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="366" spans="1:20">
       <c r="A366">
@@ -23258,7 +23986,9 @@
       <c r="S366" s="4">
         <v>55.1332359313965</v>
       </c>
-      <c r="T366" s="4"/>
+      <c r="T366" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="367" spans="1:20">
       <c r="A367">
@@ -23318,7 +24048,9 @@
       <c r="S367" s="4">
         <v>99.9866638183594</v>
       </c>
-      <c r="T367" s="4"/>
+      <c r="T367" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="368" spans="1:20">
       <c r="A368">
@@ -23378,7 +24110,9 @@
       <c r="S368" s="4">
         <v>109.90975189209</v>
       </c>
-      <c r="T368" s="4"/>
+      <c r="T368" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="369" spans="1:20">
       <c r="A369">
@@ -23438,7 +24172,9 @@
       <c r="S369" s="4">
         <v>62.7532539367676</v>
       </c>
-      <c r="T369" s="4"/>
+      <c r="T369" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="370" spans="1:20">
       <c r="A370">
@@ -23498,7 +24234,9 @@
       <c r="S370" s="4">
         <v>134.931243896484</v>
       </c>
-      <c r="T370" s="4"/>
+      <c r="T370" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="371" spans="1:20">
       <c r="A371">
@@ -23558,7 +24296,9 @@
       <c r="S371" s="4">
         <v>200.15510559082</v>
       </c>
-      <c r="T371" s="4"/>
+      <c r="T371" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="372" spans="1:20">
       <c r="A372">
@@ -23618,7 +24358,9 @@
       <c r="S372" s="4">
         <v>80.9937973022461</v>
       </c>
-      <c r="T372" s="4"/>
+      <c r="T372" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="373" spans="1:20">
       <c r="A373">
@@ -23678,7 +24420,9 @@
       <c r="S373" s="4">
         <v>95.3715438842773</v>
       </c>
-      <c r="T373" s="4"/>
+      <c r="T373" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="374" spans="1:20">
       <c r="A374">
@@ -23738,7 +24482,9 @@
       <c r="S374" s="4">
         <v>112.405296325684</v>
       </c>
-      <c r="T374" s="4"/>
+      <c r="T374" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="375" spans="1:20">
       <c r="A375">
@@ -23798,7 +24544,9 @@
       <c r="S375" s="4">
         <v>135.082397460937</v>
       </c>
-      <c r="T375" s="4"/>
+      <c r="T375" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="376" spans="1:20">
       <c r="A376">
@@ -23858,7 +24606,9 @@
       <c r="S376" s="4">
         <v>92.0714263916016</v>
       </c>
-      <c r="T376" s="4"/>
+      <c r="T376" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="377" spans="1:20">
       <c r="A377">
@@ -23918,7 +24668,9 @@
       <c r="S377" s="4">
         <v>97.6204299926758</v>
       </c>
-      <c r="T377" s="4"/>
+      <c r="T377" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="378" spans="1:20">
       <c r="A378">
@@ -23978,7 +24730,9 @@
       <c r="S378" s="4">
         <v>77.1727828979492</v>
       </c>
-      <c r="T378" s="4"/>
+      <c r="T378" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="379" spans="1:20">
       <c r="A379">
@@ -24038,7 +24792,9 @@
       <c r="S379" s="4">
         <v>84.7015151977539</v>
       </c>
-      <c r="T379" s="4"/>
+      <c r="T379" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="380" spans="1:20">
       <c r="A380">
@@ -24098,7 +24854,9 @@
       <c r="S380" s="4">
         <v>195.629302978516</v>
       </c>
-      <c r="T380" s="4"/>
+      <c r="T380" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="381" spans="1:20">
       <c r="A381">
@@ -24158,7 +24916,9 @@
       <c r="S381" s="4">
         <v>123.954368591309</v>
       </c>
-      <c r="T381" s="4"/>
+      <c r="T381" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="382" spans="1:20">
       <c r="A382">
@@ -24218,7 +24978,9 @@
       <c r="S382" s="4">
         <v>106.146347045898</v>
       </c>
-      <c r="T382" s="4"/>
+      <c r="T382" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="383" spans="1:20">
       <c r="A383">
@@ -24278,7 +25040,9 @@
       <c r="S383" s="4">
         <v>187.460662841797</v>
       </c>
-      <c r="T383" s="4"/>
+      <c r="T383" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="384" spans="1:20">
       <c r="A384">
@@ -24338,7 +25102,9 @@
       <c r="S384" s="4">
         <v>144.8486328125</v>
       </c>
-      <c r="T384" s="4"/>
+      <c r="T384" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="385" spans="1:20">
       <c r="A385">
@@ -24398,7 +25164,9 @@
       <c r="S385" s="4">
         <v>76.985954284668</v>
       </c>
-      <c r="T385" s="4"/>
+      <c r="T385" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="386" spans="1:20">
       <c r="A386">
@@ -24458,7 +25226,9 @@
       <c r="S386" s="4">
         <v>8.81331348419189</v>
       </c>
-      <c r="T386" s="4"/>
+      <c r="T386" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="387" spans="1:20">
       <c r="A387">
@@ -24518,7 +25288,9 @@
       <c r="S387" s="4">
         <v>104.119697570801</v>
       </c>
-      <c r="T387" s="4"/>
+      <c r="T387" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="388" spans="1:20">
       <c r="A388">
@@ -24578,7 +25350,9 @@
       <c r="S388" s="4">
         <v>367.009460449219</v>
       </c>
-      <c r="T388" s="4"/>
+      <c r="T388" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="389" spans="1:20">
       <c r="A389">
@@ -24638,7 +25412,9 @@
       <c r="S389" s="4">
         <v>238.931884765625</v>
       </c>
-      <c r="T389" s="4"/>
+      <c r="T389" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="390" spans="1:20">
       <c r="A390">
@@ -24698,7 +25474,9 @@
       <c r="S390" s="4">
         <v>62.9172401428223</v>
       </c>
-      <c r="T390" s="4"/>
+      <c r="T390" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="391" spans="1:20">
       <c r="A391">
@@ -24758,7 +25536,9 @@
       <c r="S391" s="4">
         <v>176.758605957031</v>
       </c>
-      <c r="T391" s="4"/>
+      <c r="T391" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="392" spans="1:20">
       <c r="A392">
@@ -24818,7 +25598,9 @@
       <c r="S392" s="4">
         <v>190.751251220703</v>
       </c>
-      <c r="T392" s="4"/>
+      <c r="T392" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="393" spans="1:20">
       <c r="A393">
@@ -24878,7 +25660,9 @@
       <c r="S393" s="4">
         <v>111.404113769531</v>
       </c>
-      <c r="T393" s="4"/>
+      <c r="T393" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="394" spans="1:20">
       <c r="A394">
@@ -24938,7 +25722,9 @@
       <c r="S394" s="4">
         <v>155.417724609375</v>
       </c>
-      <c r="T394" s="4"/>
+      <c r="T394" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="395" spans="1:20">
       <c r="A395">
@@ -24998,7 +25784,9 @@
       <c r="S395" s="4">
         <v>87.7416915893555</v>
       </c>
-      <c r="T395" s="4"/>
+      <c r="T395" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="396" spans="1:20">
       <c r="A396">
@@ -25058,7 +25846,9 @@
       <c r="S396" s="4">
         <v>148.920272827148</v>
       </c>
-      <c r="T396" s="4"/>
+      <c r="T396" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="397" spans="1:20">
       <c r="A397">
@@ -25118,7 +25908,9 @@
       <c r="S397" s="4">
         <v>196.381988525391</v>
       </c>
-      <c r="T397" s="4"/>
+      <c r="T397" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="398" spans="1:20">
       <c r="A398">
@@ -25178,7 +25970,9 @@
       <c r="S398" s="4">
         <v>112.510688781738</v>
       </c>
-      <c r="T398" s="4"/>
+      <c r="T398" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="399" spans="1:20">
       <c r="A399">
@@ -25238,7 +26032,9 @@
       <c r="S399" s="4">
         <v>197.514984130859</v>
       </c>
-      <c r="T399" s="4"/>
+      <c r="T399" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="400" spans="1:20">
       <c r="A400">
@@ -25298,7 +26094,9 @@
       <c r="S400" s="4">
         <v>170.596801757812</v>
       </c>
-      <c r="T400" s="4"/>
+      <c r="T400" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="401" spans="1:20">
       <c r="A401">
@@ -25358,7 +26156,9 @@
       <c r="S401" s="4">
         <v>129.586166381836</v>
       </c>
-      <c r="T401" s="4"/>
+      <c r="T401" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="402" spans="1:20">
       <c r="A402">
@@ -25418,7 +26218,9 @@
       <c r="S402" s="4">
         <v>179.273666381836</v>
       </c>
-      <c r="T402" s="4"/>
+      <c r="T402" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="403" spans="1:20">
       <c r="A403">
@@ -25478,7 +26280,9 @@
       <c r="S403" s="4">
         <v>177.339050292969</v>
       </c>
-      <c r="T403" s="4"/>
+      <c r="T403" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="404" spans="1:20">
       <c r="A404">
@@ -25538,7 +26342,9 @@
       <c r="S404" s="4">
         <v>123.93864440918</v>
       </c>
-      <c r="T404" s="4"/>
+      <c r="T404" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="405" spans="1:20">
       <c r="A405">
@@ -25598,7 +26404,9 @@
       <c r="S405" s="4">
         <v>173.055358886719</v>
       </c>
-      <c r="T405" s="4"/>
+      <c r="T405" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="406" spans="1:20">
       <c r="A406">
@@ -25658,7 +26466,9 @@
       <c r="S406" s="4">
         <v>217.745803833008</v>
       </c>
-      <c r="T406" s="4"/>
+      <c r="T406" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="407" spans="1:20">
       <c r="A407">
@@ -25718,7 +26528,9 @@
       <c r="S407" s="4">
         <v>186.182723999023</v>
       </c>
-      <c r="T407" s="4"/>
+      <c r="T407" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="408" spans="1:20">
       <c r="A408">
@@ -25778,7 +26590,9 @@
       <c r="S408" s="4">
         <v>119.070411682129</v>
       </c>
-      <c r="T408" s="4"/>
+      <c r="T408" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="409" spans="1:20">
       <c r="A409">
@@ -25838,7 +26652,9 @@
       <c r="S409" s="4">
         <v>214.620574951172</v>
       </c>
-      <c r="T409" s="4"/>
+      <c r="T409" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="410" spans="1:20">
       <c r="A410">
@@ -25898,7 +26714,9 @@
       <c r="S410" s="4">
         <v>237.101989746094</v>
       </c>
-      <c r="T410" s="4"/>
+      <c r="T410" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="411" spans="1:20">
       <c r="A411">
@@ -25958,7 +26776,9 @@
       <c r="S411" s="4">
         <v>304.286499023438</v>
       </c>
-      <c r="T411" s="4"/>
+      <c r="T411" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="412" spans="1:20">
       <c r="A412">
@@ -26018,7 +26838,9 @@
       <c r="S412" s="4">
         <v>179.77229309082</v>
       </c>
-      <c r="T412" s="4"/>
+      <c r="T412" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="413" spans="1:20">
       <c r="A413">
@@ -26078,7 +26900,9 @@
       <c r="S413" s="4">
         <v>94.5304718017578</v>
       </c>
-      <c r="T413" s="4"/>
+      <c r="T413" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="414" spans="1:20">
       <c r="A414">
@@ -26138,7 +26962,9 @@
       <c r="S414" s="4">
         <v>180.614028930664</v>
       </c>
-      <c r="T414" s="4"/>
+      <c r="T414" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="415" spans="1:20">
       <c r="A415">
@@ -26198,7 +27024,9 @@
       <c r="S415" s="4">
         <v>363.444274902344</v>
       </c>
-      <c r="T415" s="4"/>
+      <c r="T415" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="416" spans="1:20">
       <c r="A416">
@@ -26258,7 +27086,9 @@
       <c r="S416" s="4">
         <v>214.395553588867</v>
       </c>
-      <c r="T416" s="4"/>
+      <c r="T416" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="417" spans="1:20">
       <c r="A417">
@@ -26318,7 +27148,9 @@
       <c r="S417" s="4">
         <v>205.158569335937</v>
       </c>
-      <c r="T417" s="4"/>
+      <c r="T417" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="418" spans="1:20">
       <c r="A418">
@@ -26378,7 +27210,9 @@
       <c r="S418" s="4">
         <v>201.95133972168</v>
       </c>
-      <c r="T418" s="4"/>
+      <c r="T418" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="419" spans="1:20">
       <c r="A419">
@@ -26438,7 +27272,9 @@
       <c r="S419" s="4">
         <v>151.828994750977</v>
       </c>
-      <c r="T419" s="4"/>
+      <c r="T419" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="420" spans="1:20">
       <c r="A420">
@@ -26498,7 +27334,9 @@
       <c r="S420" s="4">
         <v>171.451766967773</v>
       </c>
-      <c r="T420" s="4"/>
+      <c r="T420" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="421" spans="1:20">
       <c r="A421">
@@ -26558,7 +27396,9 @@
       <c r="S421" s="4">
         <v>19.1878700256348</v>
       </c>
-      <c r="T421" s="4"/>
+      <c r="T421" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="422" spans="1:20">
       <c r="A422">
@@ -26618,7 +27458,9 @@
       <c r="S422" s="4">
         <v>52.824047088623</v>
       </c>
-      <c r="T422" s="4"/>
+      <c r="T422" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="423" spans="1:20">
       <c r="A423">
@@ -26678,7 +27520,9 @@
       <c r="S423" s="4">
         <v>367.009460449219</v>
       </c>
-      <c r="T423" s="4"/>
+      <c r="T423" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="424" spans="1:20">
       <c r="A424">
@@ -26738,7 +27582,9 @@
       <c r="S424" s="4">
         <v>238.931884765625</v>
       </c>
-      <c r="T424" s="4"/>
+      <c r="T424" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="425" spans="1:20">
       <c r="A425">
@@ -26798,7 +27644,9 @@
       <c r="S425" s="4">
         <v>108.468589782715</v>
       </c>
-      <c r="T425" s="4"/>
+      <c r="T425" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="426" spans="1:20">
       <c r="A426">
@@ -26858,7 +27706,9 @@
       <c r="S426" s="4">
         <v>140.044021606445</v>
       </c>
-      <c r="T426" s="4"/>
+      <c r="T426" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="427" spans="1:20">
       <c r="A427">
@@ -26918,7 +27768,9 @@
       <c r="S427" s="4">
         <v>153.55126953125</v>
       </c>
-      <c r="T427" s="4"/>
+      <c r="T427" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="428" spans="1:20">
       <c r="A428">
@@ -26978,7 +27830,9 @@
       <c r="S428" s="4">
         <v>97.5420227050781</v>
       </c>
-      <c r="T428" s="4"/>
+      <c r="T428" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="429" spans="1:20">
       <c r="A429">
@@ -27038,7 +27892,9 @@
       <c r="S429" s="4">
         <v>90.1787567138672</v>
       </c>
-      <c r="T429" s="4"/>
+      <c r="T429" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="430" spans="1:20">
       <c r="A430">
@@ -27098,7 +27954,9 @@
       <c r="S430" s="4">
         <v>61.2058601379395</v>
       </c>
-      <c r="T430" s="4"/>
+      <c r="T430" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="431" spans="1:20">
       <c r="A431">
@@ -27158,7 +28016,9 @@
       <c r="S431" s="4">
         <v>88.9993591308594</v>
       </c>
-      <c r="T431" s="4"/>
+      <c r="T431" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="432" spans="1:20">
       <c r="A432">
@@ -27218,7 +28078,9 @@
       <c r="S432" s="4">
         <v>132.860534667969</v>
       </c>
-      <c r="T432" s="4"/>
+      <c r="T432" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="433" spans="1:20">
       <c r="A433">
@@ -27278,7 +28140,9 @@
       <c r="S433" s="4">
         <v>102.624359130859</v>
       </c>
-      <c r="T433" s="4"/>
+      <c r="T433" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="434" spans="1:20">
       <c r="A434">
@@ -27338,7 +28202,9 @@
       <c r="S434" s="4">
         <v>157.396224975586</v>
       </c>
-      <c r="T434" s="4"/>
+      <c r="T434" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="435" spans="1:20">
       <c r="A435">
@@ -27398,7 +28264,9 @@
       <c r="S435" s="4">
         <v>54.4459609985352</v>
       </c>
-      <c r="T435" s="4"/>
+      <c r="T435" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="436" spans="1:20">
       <c r="A436">
@@ -27458,7 +28326,9 @@
       <c r="S436" s="4">
         <v>44.2990570068359</v>
       </c>
-      <c r="T436" s="4"/>
+      <c r="T436" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="437" spans="1:20">
       <c r="A437">
@@ -27518,7 +28388,9 @@
       <c r="S437" s="4">
         <v>113.035125732422</v>
       </c>
-      <c r="T437" s="4"/>
+      <c r="T437" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="438" spans="1:20">
       <c r="A438">
@@ -27578,7 +28450,9 @@
       <c r="S438" s="4">
         <v>102.004119873047</v>
       </c>
-      <c r="T438" s="4"/>
+      <c r="T438" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="439" spans="1:20">
       <c r="A439">
@@ -27638,7 +28512,9 @@
       <c r="S439" s="4">
         <v>56.7736167907715</v>
       </c>
-      <c r="T439" s="4"/>
+      <c r="T439" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="440" spans="1:20">
       <c r="A440">
@@ -27698,7 +28574,9 @@
       <c r="S440" s="4">
         <v>173.055358886719</v>
       </c>
-      <c r="T440" s="4"/>
+      <c r="T440" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="441" spans="1:20">
       <c r="A441">
@@ -27758,7 +28636,9 @@
       <c r="S441" s="4">
         <v>311.781585693359</v>
       </c>
-      <c r="T441" s="4"/>
+      <c r="T441" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="442" spans="1:20">
       <c r="A442">
@@ -27818,7 +28698,9 @@
       <c r="S442" s="4">
         <v>141.821380615234</v>
       </c>
-      <c r="T442" s="4"/>
+      <c r="T442" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="443" spans="1:20">
       <c r="A443">
@@ -27878,7 +28760,9 @@
       <c r="S443" s="4">
         <v>119.903259277344</v>
       </c>
-      <c r="T443" s="4"/>
+      <c r="T443" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="444" spans="1:20">
       <c r="A444">
@@ -27938,7 +28822,9 @@
       <c r="S444" s="4">
         <v>227.428146362305</v>
       </c>
-      <c r="T444" s="4"/>
+      <c r="T444" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="445" spans="1:20">
       <c r="A445">
@@ -27998,7 +28884,9 @@
       <c r="S445" s="4">
         <v>147.365753173828</v>
       </c>
-      <c r="T445" s="4"/>
+      <c r="T445" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="446" spans="1:20">
       <c r="A446">
@@ -28058,7 +28946,9 @@
       <c r="S446" s="4">
         <v>304.286499023438</v>
       </c>
-      <c r="T446" s="4"/>
+      <c r="T446" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="447" spans="1:20">
       <c r="A447">
@@ -28118,7 +29008,9 @@
       <c r="S447" s="4">
         <v>117.915481567383</v>
       </c>
-      <c r="T447" s="4"/>
+      <c r="T447" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="448" spans="1:20">
       <c r="A448">
@@ -28178,7 +29070,9 @@
       <c r="S448" s="4">
         <v>231.151885986328</v>
       </c>
-      <c r="T448" s="4"/>
+      <c r="T448" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="449" spans="1:20">
       <c r="A449">
@@ -28238,7 +29132,9 @@
       <c r="S449" s="4">
         <v>229.762969970703</v>
       </c>
-      <c r="T449" s="4"/>
+      <c r="T449" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="450" spans="1:20">
       <c r="A450">
@@ -28298,7 +29194,9 @@
       <c r="S450" s="4">
         <v>363.444274902344</v>
       </c>
-      <c r="T450" s="4"/>
+      <c r="T450" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="451" spans="1:20">
       <c r="A451">
@@ -28358,7 +29256,9 @@
       <c r="S451" s="4">
         <v>214.395553588867</v>
       </c>
-      <c r="T451" s="4"/>
+      <c r="T451" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="452" spans="1:20">
       <c r="A452">
@@ -28418,7 +29318,9 @@
       <c r="S452" s="4">
         <v>205.158569335937</v>
       </c>
-      <c r="T452" s="4"/>
+      <c r="T452" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="453" spans="1:20">
       <c r="A453">
@@ -28478,7 +29380,9 @@
       <c r="S453" s="4">
         <v>201.95133972168</v>
       </c>
-      <c r="T453" s="4"/>
+      <c r="T453" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="454" spans="1:20">
       <c r="A454">
@@ -28538,7 +29442,9 @@
       <c r="S454" s="4">
         <v>210.544738769531</v>
       </c>
-      <c r="T454" s="4"/>
+      <c r="T454" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="455" spans="1:20">
       <c r="A455">
@@ -28598,7 +29504,9 @@
       <c r="S455" s="4">
         <v>160.312637329102</v>
       </c>
-      <c r="T455" s="4"/>
+      <c r="T455" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="456" spans="1:20">
       <c r="A456">
@@ -28658,7 +29566,9 @@
       <c r="S456" s="4">
         <v>13.2964477539062</v>
       </c>
-      <c r="T456" s="4"/>
+      <c r="T456" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="457" spans="1:20">
       <c r="A457">
@@ -28718,7 +29628,9 @@
       <c r="S457" s="4">
         <v>172.146789550781</v>
       </c>
-      <c r="T457" s="4"/>
+      <c r="T457" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="458" spans="1:20">
       <c r="A458">
@@ -28778,7 +29690,9 @@
       <c r="S458" s="4">
         <v>367.009460449219</v>
       </c>
-      <c r="T458" s="4"/>
+      <c r="T458" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="459" spans="1:20">
       <c r="A459">
@@ -28838,7 +29752,9 @@
       <c r="S459" s="4">
         <v>238.931884765625</v>
       </c>
-      <c r="T459" s="4"/>
+      <c r="T459" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="460" spans="1:20">
       <c r="A460">
@@ -28898,7 +29814,9 @@
       <c r="S460" s="4">
         <v>172.848876953125</v>
       </c>
-      <c r="T460" s="4"/>
+      <c r="T460" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="461" spans="1:20">
       <c r="A461">
@@ -28958,7 +29876,9 @@
       <c r="S461" s="4">
         <v>155.005096435547</v>
       </c>
-      <c r="T461" s="4"/>
+      <c r="T461" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="462" spans="1:20">
       <c r="A462">
@@ -29018,7 +29938,9 @@
       <c r="S462" s="4">
         <v>136.023513793945</v>
       </c>
-      <c r="T462" s="4"/>
+      <c r="T462" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="463" spans="1:20">
       <c r="A463">
@@ -29078,7 +30000,9 @@
       <c r="S463" s="4">
         <v>153.266418457031</v>
       </c>
-      <c r="T463" s="4"/>
+      <c r="T463" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="464" spans="1:20">
       <c r="A464">
@@ -29138,7 +30062,9 @@
       <c r="S464" s="4">
         <v>101.9091796875</v>
       </c>
-      <c r="T464" s="4"/>
+      <c r="T464" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="465" spans="1:20">
       <c r="A465">
@@ -29198,7 +30124,9 @@
       <c r="S465" s="4">
         <v>89.5634918212891</v>
       </c>
-      <c r="T465" s="4"/>
+      <c r="T465" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="466" spans="1:20">
       <c r="A466">
@@ -29258,7 +30186,9 @@
       <c r="S466" s="4">
         <v>88.9993591308594</v>
       </c>
-      <c r="T466" s="4"/>
+      <c r="T466" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="467" spans="1:20">
       <c r="A467">
@@ -29318,7 +30248,9 @@
       <c r="S467" s="4">
         <v>95.5632553100586</v>
       </c>
-      <c r="T467" s="4"/>
+      <c r="T467" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="468" spans="1:20">
       <c r="A468">
@@ -29378,7 +30310,9 @@
       <c r="S468" s="4">
         <v>113.549598693848</v>
       </c>
-      <c r="T468" s="4"/>
+      <c r="T468" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="469" spans="1:20">
       <c r="A469">
@@ -29438,7 +30372,9 @@
       <c r="S469" s="4">
         <v>358.561340332031</v>
       </c>
-      <c r="T469" s="4"/>
+      <c r="T469" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="470" spans="1:20">
       <c r="A470">
@@ -29498,7 +30434,9 @@
       <c r="S470" s="4">
         <v>163.335922241211</v>
       </c>
-      <c r="T470" s="4"/>
+      <c r="T470" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="471" spans="1:20">
       <c r="A471">
@@ -29558,7 +30496,9 @@
       <c r="S471" s="4">
         <v>127.033660888672</v>
       </c>
-      <c r="T471" s="4"/>
+      <c r="T471" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="472" spans="1:20">
       <c r="A472">
@@ -29618,7 +30558,9 @@
       <c r="S472" s="4">
         <v>136.48193359375</v>
       </c>
-      <c r="T472" s="4"/>
+      <c r="T472" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="473" spans="1:20">
       <c r="A473">
@@ -29678,7 +30620,9 @@
       <c r="S473" s="4">
         <v>181.931594848633</v>
       </c>
-      <c r="T473" s="4"/>
+      <c r="T473" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="474" spans="1:20">
       <c r="A474">
@@ -29738,7 +30682,9 @@
       <c r="S474" s="4">
         <v>106.729919433594</v>
       </c>
-      <c r="T474" s="4"/>
+      <c r="T474" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="475" spans="1:20">
       <c r="A475">
@@ -29798,7 +30744,9 @@
       <c r="S475" s="4">
         <v>129.898010253906</v>
       </c>
-      <c r="T475" s="4"/>
+      <c r="T475" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="476" spans="1:20">
       <c r="A476">
@@ -29858,7 +30806,9 @@
       <c r="S476" s="4">
         <v>381.852203369141</v>
       </c>
-      <c r="T476" s="4"/>
+      <c r="T476" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="477" spans="1:20">
       <c r="A477">
@@ -29918,7 +30868,9 @@
       <c r="S477" s="4">
         <v>190.491851806641</v>
       </c>
-      <c r="T477" s="4"/>
+      <c r="T477" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="478" spans="1:20">
       <c r="A478">
@@ -29978,7 +30930,9 @@
       <c r="S478" s="4">
         <v>336.770690917969</v>
       </c>
-      <c r="T478" s="4"/>
+      <c r="T478" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="479" spans="1:20">
       <c r="A479">
@@ -30038,7 +30992,9 @@
       <c r="S479" s="4">
         <v>214.620574951172</v>
       </c>
-      <c r="T479" s="4"/>
+      <c r="T479" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="480" spans="1:20">
       <c r="A480">
@@ -30098,7 +31054,9 @@
       <c r="S480" s="4">
         <v>287.207611083984</v>
       </c>
-      <c r="T480" s="4"/>
+      <c r="T480" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="481" spans="1:20">
       <c r="A481">
@@ -30158,7 +31116,9 @@
       <c r="S481" s="4">
         <v>304.286499023438</v>
       </c>
-      <c r="T481" s="4"/>
+      <c r="T481" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="482" spans="1:20">
       <c r="A482">
@@ -30218,7 +31178,9 @@
       <c r="S482" s="4">
         <v>245.711807250977</v>
       </c>
-      <c r="T482" s="4"/>
+      <c r="T482" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="483" spans="1:20">
       <c r="A483">
@@ -30278,7 +31240,9 @@
       <c r="S483" s="4">
         <v>231.151885986328</v>
       </c>
-      <c r="T483" s="4"/>
+      <c r="T483" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="484" spans="1:20">
       <c r="A484">
@@ -30338,7 +31302,9 @@
       <c r="S484" s="4">
         <v>229.762969970703</v>
       </c>
-      <c r="T484" s="4"/>
+      <c r="T484" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="485" spans="1:20">
       <c r="A485">
@@ -30398,7 +31364,9 @@
       <c r="S485" s="4">
         <v>363.444274902344</v>
       </c>
-      <c r="T485" s="4"/>
+      <c r="T485" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="486" spans="1:20">
       <c r="A486">
@@ -30458,7 +31426,9 @@
       <c r="S486" s="4">
         <v>214.395553588867</v>
       </c>
-      <c r="T486" s="4"/>
+      <c r="T486" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="487" spans="1:20">
       <c r="A487">
@@ -30518,7 +31488,9 @@
       <c r="S487" s="4">
         <v>205.158569335937</v>
       </c>
-      <c r="T487" s="4"/>
+      <c r="T487" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="488" spans="1:20">
       <c r="A488">
@@ -30578,7 +31550,9 @@
       <c r="S488" s="4">
         <v>268.436370849609</v>
       </c>
-      <c r="T488" s="4"/>
+      <c r="T488" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="489" spans="1:20">
       <c r="A489">
@@ -30638,7 +31612,9 @@
       <c r="S489" s="4">
         <v>237.291900634766</v>
       </c>
-      <c r="T489" s="4"/>
+      <c r="T489" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="490" spans="1:20">
       <c r="A490">
@@ -30698,7 +31674,9 @@
       <c r="S490" s="4">
         <v>281.277770996094</v>
       </c>
-      <c r="T490" s="4"/>
+      <c r="T490" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="491" spans="1:20">
       <c r="A491">
@@ -30758,7 +31736,9 @@
       <c r="S491" s="4">
         <v>26.2066173553467</v>
       </c>
-      <c r="T491" s="4"/>
+      <c r="T491" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="492" spans="1:20">
       <c r="A492">
@@ -30818,7 +31798,9 @@
       <c r="S492" s="4">
         <v>100.466552734375</v>
       </c>
-      <c r="T492" s="4"/>
+      <c r="T492" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="493" spans="1:20">
       <c r="A493">
@@ -30878,7 +31860,9 @@
       <c r="S493" s="4">
         <v>344.105834960938</v>
       </c>
-      <c r="T493" s="4"/>
+      <c r="T493" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="494" spans="1:20">
       <c r="A494">
@@ -30938,7 +31922,9 @@
       <c r="S494" s="4">
         <v>255.267395019531</v>
       </c>
-      <c r="T494" s="4"/>
+      <c r="T494" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="495" spans="1:20">
       <c r="A495">
@@ -30998,7 +31984,9 @@
       <c r="S495" s="4">
         <v>93.1600189208984</v>
       </c>
-      <c r="T495" s="4"/>
+      <c r="T495" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="496" spans="1:20">
       <c r="A496">
@@ -31058,7 +32046,9 @@
       <c r="S496" s="4">
         <v>133.287445068359</v>
       </c>
-      <c r="T496" s="4"/>
+      <c r="T496" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="497" spans="1:20">
       <c r="A497">
@@ -31118,7 +32108,9 @@
       <c r="S497" s="4">
         <v>121.195434570312</v>
       </c>
-      <c r="T497" s="4"/>
+      <c r="T497" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="498" spans="1:20">
       <c r="A498">
@@ -31178,7 +32170,9 @@
       <c r="S498" s="4">
         <v>255.946426391602</v>
       </c>
-      <c r="T498" s="4"/>
+      <c r="T498" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="499" spans="1:20">
       <c r="A499">
@@ -31238,7 +32232,9 @@
       <c r="S499" s="4">
         <v>94.3857116699219</v>
       </c>
-      <c r="T499" s="4"/>
+      <c r="T499" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="500" spans="1:20">
       <c r="A500">
@@ -31298,7 +32294,9 @@
       <c r="S500" s="4">
         <v>91.3192291259766</v>
       </c>
-      <c r="T500" s="4"/>
+      <c r="T500" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="501" spans="1:20">
       <c r="A501">
@@ -31358,7 +32356,9 @@
       <c r="S501" s="4">
         <v>144.274444580078</v>
       </c>
-      <c r="T501" s="4"/>
+      <c r="T501" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="502" spans="1:20">
       <c r="A502">
@@ -31418,7 +32418,9 @@
       <c r="S502" s="4">
         <v>298.692291259766</v>
       </c>
-      <c r="T502" s="4"/>
+      <c r="T502" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="503" spans="1:20">
       <c r="A503">
@@ -31478,7 +32480,9 @@
       <c r="S503" s="4">
         <v>91.7974166870117</v>
       </c>
-      <c r="T503" s="4"/>
+      <c r="T503" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="504" spans="1:20">
       <c r="A504">
@@ -31538,7 +32542,9 @@
       <c r="S504" s="4">
         <v>195.469390869141</v>
       </c>
-      <c r="T504" s="4"/>
+      <c r="T504" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="505" spans="1:20">
       <c r="A505">
@@ -31598,7 +32604,9 @@
       <c r="S505" s="4">
         <v>127.737350463867</v>
       </c>
-      <c r="T505" s="4"/>
+      <c r="T505" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="506" spans="1:20">
       <c r="A506">
@@ -31658,7 +32666,9 @@
       <c r="S506" s="4">
         <v>114.343032836914</v>
       </c>
-      <c r="T506" s="4"/>
+      <c r="T506" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="507" spans="1:20">
       <c r="A507">
@@ -31718,7 +32728,9 @@
       <c r="S507" s="4">
         <v>238.526641845703</v>
       </c>
-      <c r="T507" s="4"/>
+      <c r="T507" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="508" spans="1:20">
       <c r="A508">
@@ -31778,7 +32790,9 @@
       <c r="S508" s="4">
         <v>319.708374023438</v>
       </c>
-      <c r="T508" s="4"/>
+      <c r="T508" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="509" spans="1:20">
       <c r="A509">
@@ -31838,7 +32852,9 @@
       <c r="S509" s="4">
         <v>67.1274871826172</v>
       </c>
-      <c r="T509" s="4"/>
+      <c r="T509" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="510" spans="1:20">
       <c r="A510">
@@ -31898,7 +32914,9 @@
       <c r="S510" s="4">
         <v>216.055755615234</v>
       </c>
-      <c r="T510" s="4"/>
+      <c r="T510" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="511" spans="1:20">
       <c r="A511">
@@ -31958,7 +32976,9 @@
       <c r="S511" s="4">
         <v>136.981536865234</v>
       </c>
-      <c r="T511" s="4"/>
+      <c r="T511" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="512" spans="1:20">
       <c r="A512">
@@ -32018,7 +33038,9 @@
       <c r="S512" s="4">
         <v>219.8046875</v>
       </c>
-      <c r="T512" s="4"/>
+      <c r="T512" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="513" spans="1:20">
       <c r="A513">
@@ -32078,7 +33100,9 @@
       <c r="S513" s="4">
         <v>213.665405273437</v>
       </c>
-      <c r="T513" s="4"/>
+      <c r="T513" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="514" spans="1:20">
       <c r="A514">
@@ -32138,7 +33162,9 @@
       <c r="S514" s="4">
         <v>336.832824707031</v>
       </c>
-      <c r="T514" s="4"/>
+      <c r="T514" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="515" spans="1:20">
       <c r="A515">
@@ -32198,7 +33224,9 @@
       <c r="S515" s="4">
         <v>103.581832885742</v>
       </c>
-      <c r="T515" s="4"/>
+      <c r="T515" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="516" spans="1:20">
       <c r="A516">
@@ -32258,7 +33286,9 @@
       <c r="S516" s="4">
         <v>369.781433105469</v>
       </c>
-      <c r="T516" s="4"/>
+      <c r="T516" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="517" spans="1:20">
       <c r="A517">
@@ -32318,7 +33348,9 @@
       <c r="S517" s="4">
         <v>184.801315307617</v>
       </c>
-      <c r="T517" s="4"/>
+      <c r="T517" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="518" spans="1:20">
       <c r="A518">
@@ -32378,7 +33410,9 @@
       <c r="S518" s="4">
         <v>206.707336425781</v>
       </c>
-      <c r="T518" s="4"/>
+      <c r="T518" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="519" spans="1:20">
       <c r="A519">
@@ -32438,7 +33472,9 @@
       <c r="S519" s="4">
         <v>176.342071533203</v>
       </c>
-      <c r="T519" s="4"/>
+      <c r="T519" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="520" spans="1:20">
       <c r="A520">
@@ -32498,7 +33534,9 @@
       <c r="S520" s="4">
         <v>136.660278320312</v>
       </c>
-      <c r="T520" s="4"/>
+      <c r="T520" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="521" spans="1:20">
       <c r="A521">
@@ -32558,7 +33596,9 @@
       <c r="S521" s="4">
         <v>171.933441162109</v>
       </c>
-      <c r="T521" s="4"/>
+      <c r="T521" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="522" spans="1:20">
       <c r="A522">
@@ -32618,7 +33658,9 @@
       <c r="S522" s="4">
         <v>191.809967041016</v>
       </c>
-      <c r="T522" s="4"/>
+      <c r="T522" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="523" spans="1:20">
       <c r="A523">
@@ -32678,7 +33720,9 @@
       <c r="S523" s="4">
         <v>376.284851074219</v>
       </c>
-      <c r="T523" s="4"/>
+      <c r="T523" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="524" spans="1:20">
       <c r="A524">
@@ -32738,7 +33782,9 @@
       <c r="S524" s="4">
         <v>257.44287109375</v>
       </c>
-      <c r="T524" s="4"/>
+      <c r="T524" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="525" spans="1:20">
       <c r="A525">
@@ -32798,7 +33844,9 @@
       <c r="S525" s="4">
         <v>205.253234863281</v>
       </c>
-      <c r="T525" s="4"/>
+      <c r="T525" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="526" spans="1:20">
       <c r="A526">
@@ -32858,7 +33906,9 @@
       <c r="S526" s="4">
         <v>27.0487327575684</v>
       </c>
-      <c r="T526" s="4"/>
+      <c r="T526" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="527" spans="1:20">
       <c r="A527">
@@ -32918,7 +33968,9 @@
       <c r="S527" s="4">
         <v>83.221809387207</v>
       </c>
-      <c r="T527" s="4"/>
+      <c r="T527" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="528" spans="1:20">
       <c r="A528">
@@ -32978,7 +34030,9 @@
       <c r="S528" s="4">
         <v>287.581420898438</v>
       </c>
-      <c r="T528" s="4"/>
+      <c r="T528" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="529" spans="1:20">
       <c r="A529">
@@ -33038,7 +34092,9 @@
       <c r="S529" s="4">
         <v>251.397705078125</v>
       </c>
-      <c r="T529" s="4"/>
+      <c r="T529" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="530" spans="1:20">
       <c r="A530">
@@ -33098,7 +34154,9 @@
       <c r="S530" s="4">
         <v>87.5916900634766</v>
       </c>
-      <c r="T530" s="4"/>
+      <c r="T530" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="531" spans="1:20">
       <c r="A531">
@@ -33158,7 +34216,9 @@
       <c r="S531" s="4">
         <v>130.522354125977</v>
       </c>
-      <c r="T531" s="4"/>
+      <c r="T531" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="532" spans="1:20">
       <c r="A532">
@@ -33218,7 +34278,9 @@
       <c r="S532" s="4">
         <v>267.725860595703</v>
       </c>
-      <c r="T532" s="4"/>
+      <c r="T532" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="533" spans="1:20">
       <c r="A533">
@@ -33278,7 +34340,9 @@
       <c r="S533" s="4">
         <v>269.482727050781</v>
       </c>
-      <c r="T533" s="4"/>
+      <c r="T533" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="534" spans="1:20">
       <c r="A534">
@@ -33338,7 +34402,9 @@
       <c r="S534" s="4">
         <v>104.047821044922</v>
       </c>
-      <c r="T534" s="4"/>
+      <c r="T534" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="535" spans="1:20">
       <c r="A535">
@@ -33398,7 +34464,9 @@
       <c r="S535" s="4">
         <v>93.1469421386719</v>
       </c>
-      <c r="T535" s="4"/>
+      <c r="T535" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="536" spans="1:20">
       <c r="A536">
@@ -33458,7 +34526,9 @@
       <c r="S536" s="4">
         <v>205.600799560547</v>
       </c>
-      <c r="T536" s="4"/>
+      <c r="T536" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="537" spans="1:20">
       <c r="A537">
@@ -33518,7 +34588,9 @@
       <c r="S537" s="4">
         <v>147.320037841797</v>
       </c>
-      <c r="T537" s="4"/>
+      <c r="T537" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="538" spans="1:20">
       <c r="A538">
@@ -33578,7 +34650,9 @@
       <c r="S538" s="4">
         <v>121.112121582031</v>
       </c>
-      <c r="T538" s="4"/>
+      <c r="T538" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="539" spans="1:20">
       <c r="A539">
@@ -33638,7 +34712,9 @@
       <c r="S539" s="4">
         <v>130.889770507812</v>
       </c>
-      <c r="T539" s="4"/>
+      <c r="T539" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="540" spans="1:20">
       <c r="A540">
@@ -33698,7 +34774,9 @@
       <c r="S540" s="4">
         <v>132.900329589844</v>
       </c>
-      <c r="T540" s="4"/>
+      <c r="T540" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="541" spans="1:20">
       <c r="A541">
@@ -33758,7 +34836,9 @@
       <c r="S541" s="4">
         <v>110.385177612305</v>
       </c>
-      <c r="T541" s="4"/>
+      <c r="T541" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="542" spans="1:20">
       <c r="A542">
@@ -33818,7 +34898,9 @@
       <c r="S542" s="4">
         <v>157.425811767578</v>
       </c>
-      <c r="T542" s="4"/>
+      <c r="T542" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="543" spans="1:20">
       <c r="A543">
@@ -33878,7 +34960,9 @@
       <c r="S543" s="4">
         <v>265.614166259766</v>
       </c>
-      <c r="T543" s="4"/>
+      <c r="T543" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="544" spans="1:20">
       <c r="A544">
@@ -33938,7 +35022,9 @@
       <c r="S544" s="4">
         <v>76.8524475097656</v>
       </c>
-      <c r="T544" s="4"/>
+      <c r="T544" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="545" spans="1:20">
       <c r="A545">
@@ -33998,7 +35084,9 @@
       <c r="S545" s="4">
         <v>171.205902099609</v>
       </c>
-      <c r="T545" s="4"/>
+      <c r="T545" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="546" spans="1:20">
       <c r="A546">
@@ -34058,7 +35146,9 @@
       <c r="S546" s="4">
         <v>125.838134765625</v>
       </c>
-      <c r="T546" s="4"/>
+      <c r="T546" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="547" spans="1:20">
       <c r="A547">
@@ -34118,7 +35208,9 @@
       <c r="S547" s="4">
         <v>207.804885864258</v>
       </c>
-      <c r="T547" s="4"/>
+      <c r="T547" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="548" spans="1:20">
       <c r="A548">
@@ -34178,7 +35270,9 @@
       <c r="S548" s="4">
         <v>120.372825622559</v>
       </c>
-      <c r="T548" s="4"/>
+      <c r="T548" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="549" spans="1:20">
       <c r="A549">
@@ -34238,7 +35332,9 @@
       <c r="S549" s="4">
         <v>255.223907470703</v>
       </c>
-      <c r="T549" s="4"/>
+      <c r="T549" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="550" spans="1:20">
       <c r="A550">
@@ -34298,7 +35394,9 @@
       <c r="S550" s="4">
         <v>110.903602600098</v>
       </c>
-      <c r="T550" s="4"/>
+      <c r="T550" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="551" spans="1:20">
       <c r="A551">
@@ -34358,7 +35456,9 @@
       <c r="S551" s="4">
         <v>294.400787353516</v>
       </c>
-      <c r="T551" s="4"/>
+      <c r="T551" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="552" spans="1:20">
       <c r="A552">
@@ -34418,7 +35518,9 @@
       <c r="S552" s="4">
         <v>175.140197753906</v>
       </c>
-      <c r="T552" s="4"/>
+      <c r="T552" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="553" spans="1:20">
       <c r="A553">
@@ -34478,7 +35580,9 @@
       <c r="S553" s="4">
         <v>167.808334350586</v>
       </c>
-      <c r="T553" s="4"/>
+      <c r="T553" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="554" spans="1:20">
       <c r="A554">
@@ -34538,7 +35642,9 @@
       <c r="S554" s="4">
         <v>209.648025512695</v>
       </c>
-      <c r="T554" s="4"/>
+      <c r="T554" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="555" spans="1:20">
       <c r="A555">
@@ -34598,7 +35704,9 @@
       <c r="S555" s="4">
         <v>210.940002441406</v>
       </c>
-      <c r="T555" s="4"/>
+      <c r="T555" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="556" spans="1:20">
       <c r="A556">
@@ -34658,7 +35766,9 @@
       <c r="S556" s="4">
         <v>162.601150512695</v>
       </c>
-      <c r="T556" s="4"/>
+      <c r="T556" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="557" spans="1:20">
       <c r="A557">
@@ -34718,7 +35828,9 @@
       <c r="S557" s="4">
         <v>167.218170166016</v>
       </c>
-      <c r="T557" s="4"/>
+      <c r="T557" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="558" spans="1:20">
       <c r="A558">
@@ -34778,7 +35890,9 @@
       <c r="S558" s="4">
         <v>304.754150390625</v>
       </c>
-      <c r="T558" s="4"/>
+      <c r="T558" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="559" spans="1:20">
       <c r="A559">
@@ -34838,7 +35952,9 @@
       <c r="S559" s="4">
         <v>200.215957641602</v>
       </c>
-      <c r="T559" s="4"/>
+      <c r="T559" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="560" spans="1:20">
       <c r="A560">
@@ -34898,7 +36014,9 @@
       <c r="S560" s="4">
         <v>218.704010009766</v>
       </c>
-      <c r="T560" s="4"/>
+      <c r="T560" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="561" spans="1:20">
       <c r="A561">
@@ -34958,7 +36076,9 @@
       <c r="S561" s="4">
         <v>25.9447059631348</v>
       </c>
-      <c r="T561" s="4"/>
+      <c r="T561" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="562" spans="1:20">
       <c r="A562">
@@ -35018,7 +36138,9 @@
       <c r="S562" s="4">
         <v>335.394378662109</v>
       </c>
-      <c r="T562" s="4"/>
+      <c r="T562" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="563" spans="1:20">
       <c r="A563">
@@ -35078,7 +36200,9 @@
       <c r="S563" s="4">
         <v>233.7861328125</v>
       </c>
-      <c r="T563" s="4"/>
+      <c r="T563" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="564" spans="1:20">
       <c r="A564">
@@ -35138,7 +36262,9 @@
       <c r="S564" s="4">
         <v>262.548370361328</v>
       </c>
-      <c r="T564" s="4"/>
+      <c r="T564" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="565" spans="1:20">
       <c r="A565">
@@ -35198,7 +36324,9 @@
       <c r="S565" s="4">
         <v>135.968368530273</v>
       </c>
-      <c r="T565" s="4"/>
+      <c r="T565" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="566" spans="1:20">
       <c r="A566">
@@ -35258,7 +36386,9 @@
       <c r="S566" s="4">
         <v>100.864952087402</v>
       </c>
-      <c r="T566" s="4"/>
+      <c r="T566" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="567" spans="1:20">
       <c r="A567">
@@ -35318,7 +36448,9 @@
       <c r="S567" s="4">
         <v>227.556060791016</v>
       </c>
-      <c r="T567" s="4"/>
+      <c r="T567" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="568" spans="1:20">
       <c r="A568">
@@ -35378,7 +36510,9 @@
       <c r="S568" s="4">
         <v>188.796966552734</v>
       </c>
-      <c r="T568" s="4"/>
+      <c r="T568" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="569" spans="1:20">
       <c r="A569">
@@ -35438,7 +36572,9 @@
       <c r="S569" s="4">
         <v>119.841552734375</v>
       </c>
-      <c r="T569" s="4"/>
+      <c r="T569" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="570" spans="1:20">
       <c r="A570">
@@ -35498,7 +36634,9 @@
       <c r="S570" s="4">
         <v>121.343460083008</v>
       </c>
-      <c r="T570" s="4"/>
+      <c r="T570" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="571" spans="1:20">
       <c r="A571">
@@ -35558,7 +36696,9 @@
       <c r="S571" s="4">
         <v>167.564422607422</v>
       </c>
-      <c r="T571" s="4"/>
+      <c r="T571" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="572" spans="1:20">
       <c r="A572">
@@ -35618,7 +36758,9 @@
       <c r="S572" s="4">
         <v>112.10807800293</v>
       </c>
-      <c r="T572" s="4"/>
+      <c r="T572" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="573" spans="1:20">
       <c r="A573">
@@ -35678,7 +36820,9 @@
       <c r="S573" s="4">
         <v>379.091857910156</v>
       </c>
-      <c r="T573" s="4"/>
+      <c r="T573" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="574" spans="1:20">
       <c r="A574">
@@ -35738,7 +36882,9 @@
       <c r="S574" s="4">
         <v>142.541061401367</v>
       </c>
-      <c r="T574" s="4"/>
+      <c r="T574" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="575" spans="1:20">
       <c r="A575">
@@ -35798,7 +36944,9 @@
       <c r="S575" s="4">
         <v>147.140747070312</v>
       </c>
-      <c r="T575" s="4"/>
+      <c r="T575" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="576" spans="1:20">
       <c r="A576">
@@ -35858,7 +37006,9 @@
       <c r="S576" s="4">
         <v>114.146102905273</v>
       </c>
-      <c r="T576" s="4"/>
+      <c r="T576" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="577" spans="1:20">
       <c r="A577">
@@ -35918,7 +37068,9 @@
       <c r="S577" s="4">
         <v>121.774536132812</v>
       </c>
-      <c r="T577" s="4"/>
+      <c r="T577" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="578" spans="1:20">
       <c r="A578">
@@ -35978,7 +37130,9 @@
       <c r="S578" s="4">
         <v>299.935119628906</v>
       </c>
-      <c r="T578" s="4"/>
+      <c r="T578" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="579" spans="1:20">
       <c r="A579">
@@ -36038,7 +37192,9 @@
       <c r="S579" s="4">
         <v>82.89990234375</v>
       </c>
-      <c r="T579" s="4"/>
+      <c r="T579" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="580" spans="1:20">
       <c r="A580">
@@ -36098,7 +37254,9 @@
       <c r="S580" s="4">
         <v>313.535888671875</v>
       </c>
-      <c r="T580" s="4"/>
+      <c r="T580" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="581" spans="1:20">
       <c r="A581">
@@ -36158,7 +37316,9 @@
       <c r="S581" s="4">
         <v>325.567749023438</v>
       </c>
-      <c r="T581" s="4"/>
+      <c r="T581" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="582" spans="1:20">
       <c r="A582">
@@ -36218,7 +37378,9 @@
       <c r="S582" s="4">
         <v>183.048065185547</v>
       </c>
-      <c r="T582" s="4"/>
+      <c r="T582" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="583" spans="1:20">
       <c r="A583">
@@ -36278,7 +37440,9 @@
       <c r="S583" s="4">
         <v>251.117126464844</v>
       </c>
-      <c r="T583" s="4"/>
+      <c r="T583" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="584" spans="1:20">
       <c r="A584">
@@ -36338,7 +37502,9 @@
       <c r="S584" s="4">
         <v>189.47412109375</v>
       </c>
-      <c r="T584" s="4"/>
+      <c r="T584" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="585" spans="1:20">
       <c r="A585">
@@ -36398,7 +37564,9 @@
       <c r="S585" s="4">
         <v>131.864334106445</v>
       </c>
-      <c r="T585" s="4"/>
+      <c r="T585" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="586" spans="1:20">
       <c r="A586">
@@ -36458,7 +37626,9 @@
       <c r="S586" s="4">
         <v>404.363586425781</v>
       </c>
-      <c r="T586" s="4"/>
+      <c r="T586" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="587" spans="1:20">
       <c r="A587">
@@ -36518,7 +37688,9 @@
       <c r="S587" s="4">
         <v>202.490631103516</v>
       </c>
-      <c r="T587" s="4"/>
+      <c r="T587" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="588" spans="1:20">
       <c r="A588">
@@ -36578,7 +37750,9 @@
       <c r="S588" s="4">
         <v>264.456451416016</v>
       </c>
-      <c r="T588" s="4"/>
+      <c r="T588" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="589" spans="1:20">
       <c r="A589">
@@ -36638,7 +37812,9 @@
       <c r="S589" s="4">
         <v>180.649780273437</v>
       </c>
-      <c r="T589" s="4"/>
+      <c r="T589" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="590" spans="1:20">
       <c r="A590">
@@ -36698,7 +37874,9 @@
       <c r="S590" s="4">
         <v>215.298400878906</v>
       </c>
-      <c r="T590" s="4"/>
+      <c r="T590" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="591" spans="1:20">
       <c r="A591">
@@ -36758,7 +37936,9 @@
       <c r="S591" s="4">
         <v>122.966171264648</v>
       </c>
-      <c r="T591" s="4"/>
+      <c r="T591" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="592" spans="1:20">
       <c r="A592">
@@ -36818,7 +37998,9 @@
       <c r="S592" s="4">
         <v>173.968078613281</v>
       </c>
-      <c r="T592" s="4"/>
+      <c r="T592" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="593" spans="1:20">
       <c r="A593">
@@ -36878,7 +38060,9 @@
       <c r="S593" s="4">
         <v>350.8544921875</v>
       </c>
-      <c r="T593" s="4"/>
+      <c r="T593" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="594" spans="1:20">
       <c r="A594">
@@ -36938,7 +38122,9 @@
       <c r="S594" s="4">
         <v>184.930877685547</v>
       </c>
-      <c r="T594" s="4"/>
+      <c r="T594" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="595" spans="1:20">
       <c r="A595">
@@ -36998,7 +38184,9 @@
       <c r="S595" s="4">
         <v>222.151626586914</v>
       </c>
-      <c r="T595" s="4"/>
+      <c r="T595" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="596" spans="1:20">
       <c r="A596">
@@ -37058,7 +38246,9 @@
       <c r="S596" s="4">
         <v>25.5397453308106</v>
       </c>
-      <c r="T596" s="4"/>
+      <c r="T596" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="597" spans="1:20">
       <c r="A597">
@@ -37118,7 +38308,9 @@
       <c r="S597" s="4">
         <v>129.21418762207</v>
       </c>
-      <c r="T597" s="4"/>
+      <c r="T597" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="598" spans="1:20">
       <c r="A598">
@@ -37178,7 +38370,9 @@
       <c r="S598" s="4">
         <v>407.554992675781</v>
       </c>
-      <c r="T598" s="4"/>
+      <c r="T598" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="599" spans="1:20">
       <c r="A599">
@@ -37238,7 +38432,9 @@
       <c r="S599" s="4">
         <v>245.830963134766</v>
       </c>
-      <c r="T599" s="4"/>
+      <c r="T599" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="600" spans="1:20">
       <c r="A600">
@@ -37298,7 +38494,9 @@
       <c r="S600" s="4">
         <v>174.785003662109</v>
       </c>
-      <c r="T600" s="4"/>
+      <c r="T600" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="601" spans="1:20">
       <c r="A601">
@@ -37358,7 +38556,9 @@
       <c r="S601" s="4">
         <v>178.489990234375</v>
       </c>
-      <c r="T601" s="4"/>
+      <c r="T601" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="602" spans="1:20">
       <c r="A602">
@@ -37418,7 +38618,9 @@
       <c r="S602" s="4">
         <v>268.563110351563</v>
       </c>
-      <c r="T602" s="4"/>
+      <c r="T602" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="603" spans="1:20">
       <c r="A603">
@@ -37478,7 +38680,9 @@
       <c r="S603" s="4">
         <v>265.811340332031</v>
       </c>
-      <c r="T603" s="4"/>
+      <c r="T603" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="604" spans="1:20">
       <c r="A604">
@@ -37538,7 +38742,9 @@
       <c r="S604" s="4">
         <v>99.745849609375</v>
       </c>
-      <c r="T604" s="4"/>
+      <c r="T604" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="605" spans="1:20">
       <c r="A605">
@@ -37598,7 +38804,9 @@
       <c r="S605" s="4">
         <v>103.776336669922</v>
       </c>
-      <c r="T605" s="4"/>
+      <c r="T605" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="606" spans="1:20">
       <c r="A606">
@@ -37658,7 +38866,9 @@
       <c r="S606" s="4">
         <v>163.896881103516</v>
       </c>
-      <c r="T606" s="4"/>
+      <c r="T606" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="607" spans="1:20">
       <c r="A607">
@@ -37718,7 +38928,9 @@
       <c r="S607" s="4">
         <v>108.041702270508</v>
       </c>
-      <c r="T607" s="4"/>
+      <c r="T607" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="608" spans="1:20">
       <c r="A608">
@@ -37778,7 +38990,9 @@
       <c r="S608" s="4">
         <v>285.437591552734</v>
       </c>
-      <c r="T608" s="4"/>
+      <c r="T608" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="609" spans="1:20">
       <c r="A609">
@@ -37838,7 +39052,9 @@
       <c r="S609" s="4">
         <v>274.775329589844</v>
       </c>
-      <c r="T609" s="4"/>
+      <c r="T609" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="610" spans="1:20">
       <c r="A610">
@@ -37898,7 +39114,9 @@
       <c r="S610" s="4">
         <v>146.927291870117</v>
       </c>
-      <c r="T610" s="4"/>
+      <c r="T610" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="611" spans="1:20">
       <c r="A611">
@@ -37958,7 +39176,9 @@
       <c r="S611" s="4">
         <v>122.764030456543</v>
       </c>
-      <c r="T611" s="4"/>
+      <c r="T611" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="612" spans="1:20">
       <c r="A612">
@@ -38018,7 +39238,9 @@
       <c r="S612" s="4">
         <v>139.90901184082</v>
       </c>
-      <c r="T612" s="4"/>
+      <c r="T612" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="613" spans="1:20">
       <c r="A613">
@@ -38078,7 +39300,9 @@
       <c r="S613" s="4">
         <v>319.87890625</v>
       </c>
-      <c r="T613" s="4"/>
+      <c r="T613" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="614" spans="1:20">
       <c r="A614">
@@ -38138,7 +39362,9 @@
       <c r="S614" s="4">
         <v>97.9533157348633</v>
       </c>
-      <c r="T614" s="4"/>
+      <c r="T614" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="615" spans="1:20">
       <c r="A615">
@@ -38198,7 +39424,9 @@
       <c r="S615" s="4">
         <v>395.527099609375</v>
       </c>
-      <c r="T615" s="4"/>
+      <c r="T615" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="616" spans="1:20">
       <c r="A616">
@@ -38258,7 +39486,9 @@
       <c r="S616" s="4">
         <v>205.797576904297</v>
       </c>
-      <c r="T616" s="4"/>
+      <c r="T616" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="617" spans="1:20">
       <c r="A617">
@@ -38318,7 +39548,9 @@
       <c r="S617" s="4">
         <v>229.027526855469</v>
       </c>
-      <c r="T617" s="4"/>
+      <c r="T617" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="618" spans="1:20">
       <c r="A618">
@@ -38378,7 +39610,9 @@
       <c r="S618" s="4">
         <v>295.128356933594</v>
       </c>
-      <c r="T618" s="4"/>
+      <c r="T618" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="619" spans="1:20">
       <c r="A619">
@@ -38438,7 +39672,9 @@
       <c r="S619" s="4">
         <v>264.468139648438</v>
       </c>
-      <c r="T619" s="4"/>
+      <c r="T619" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="620" spans="1:20">
       <c r="A620">
@@ -38498,7 +39734,9 @@
       <c r="S620" s="4">
         <v>191.415939331055</v>
       </c>
-      <c r="T620" s="4"/>
+      <c r="T620" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="621" spans="1:20">
       <c r="A621">
@@ -38558,7 +39796,9 @@
       <c r="S621" s="4">
         <v>179.096984863281</v>
       </c>
-      <c r="T621" s="4"/>
+      <c r="T621" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="622" spans="1:20">
       <c r="A622">
@@ -38618,7 +39858,9 @@
       <c r="S622" s="4">
         <v>256.929534912109</v>
       </c>
-      <c r="T622" s="4"/>
+      <c r="T622" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="623" spans="1:20">
       <c r="A623">
@@ -38678,7 +39920,9 @@
       <c r="S623" s="4">
         <v>270.745056152344</v>
       </c>
-      <c r="T623" s="4"/>
+      <c r="T623" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="624" spans="1:20">
       <c r="A624">
@@ -38738,7 +39982,9 @@
       <c r="S624" s="4">
         <v>245.508483886719</v>
       </c>
-      <c r="T624" s="4"/>
+      <c r="T624" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="625" spans="1:20">
       <c r="A625">
@@ -38798,7 +40044,9 @@
       <c r="S625" s="4">
         <v>224.766021728516</v>
       </c>
-      <c r="T625" s="4"/>
+      <c r="T625" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="626" spans="1:20">
       <c r="A626">
@@ -38858,7 +40106,9 @@
       <c r="S626" s="4">
         <v>113.014129638672</v>
       </c>
-      <c r="T626" s="4"/>
+      <c r="T626" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="627" spans="1:20">
       <c r="A627">
@@ -38918,7 +40168,9 @@
       <c r="S627" s="4">
         <v>181.543273925781</v>
       </c>
-      <c r="T627" s="4"/>
+      <c r="T627" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="628" spans="1:20">
       <c r="A628">
@@ -38978,7 +40230,9 @@
       <c r="S628" s="4">
         <v>402.390197753906</v>
       </c>
-      <c r="T628" s="4"/>
+      <c r="T628" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="629" spans="1:20">
       <c r="A629">
@@ -39038,7 +40292,9 @@
       <c r="S629" s="4">
         <v>200.330352783203</v>
       </c>
-      <c r="T629" s="4"/>
+      <c r="T629" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="630" spans="1:20">
       <c r="A630">
@@ -39098,7 +40354,9 @@
       <c r="S630" s="4">
         <v>263.968841552734</v>
       </c>
-      <c r="T630" s="4"/>
+      <c r="T630" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="631" spans="1:20">
       <c r="A631">
@@ -39158,7 +40416,9 @@
       <c r="S631" s="4">
         <v>25.0600738525391</v>
       </c>
-      <c r="T631" s="4"/>
+      <c r="T631" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="632" spans="1:20">
       <c r="A632">
@@ -41388,7 +42648,9 @@
       <c r="S667" s="4">
         <v>103.110000610352</v>
       </c>
-      <c r="T667" s="4"/>
+      <c r="T667" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="668" spans="1:20">
       <c r="A668">
@@ -41448,7 +42710,9 @@
       <c r="S668" s="4">
         <v>353.894989013672</v>
       </c>
-      <c r="T668" s="4"/>
+      <c r="T668" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="669" spans="1:20">
       <c r="A669">
@@ -41508,7 +42772,9 @@
       <c r="S669" s="4">
         <v>244.489990234375</v>
       </c>
-      <c r="T669" s="4"/>
+      <c r="T669" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="670" spans="1:20">
       <c r="A670">
@@ -41568,7 +42834,9 @@
       <c r="S670" s="4">
         <v>179.540008544922</v>
       </c>
-      <c r="T670" s="4"/>
+      <c r="T670" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="671" spans="1:20">
       <c r="A671">
@@ -41628,7 +42896,9 @@
       <c r="S671" s="4">
         <v>151.850006103516</v>
       </c>
-      <c r="T671" s="4"/>
+      <c r="T671" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="672" spans="1:20">
       <c r="A672">
@@ -41688,7 +42958,9 @@
       <c r="S672" s="4">
         <v>355.614990234375</v>
       </c>
-      <c r="T672" s="4"/>
+      <c r="T672" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="673" spans="1:20">
       <c r="A673">
@@ -41748,7 +43020,9 @@
       <c r="S673" s="4">
         <v>304.649993896484</v>
       </c>
-      <c r="T673" s="4"/>
+      <c r="T673" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="674" spans="1:20">
       <c r="A674">
@@ -41808,7 +43082,9 @@
       <c r="S674" s="4">
         <v>88.495002746582</v>
       </c>
-      <c r="T674" s="4"/>
+      <c r="T674" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="675" spans="1:20">
       <c r="A675">
@@ -41868,7 +43144,9 @@
       <c r="S675" s="4">
         <v>92.1999969482422</v>
       </c>
-      <c r="T675" s="4"/>
+      <c r="T675" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="676" spans="1:20">
       <c r="A676">
@@ -41928,7 +43206,9 @@
       <c r="S676" s="4">
         <v>186.184997558594</v>
       </c>
-      <c r="T676" s="4"/>
+      <c r="T676" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="677" spans="1:20">
       <c r="A677">
@@ -41988,7 +43268,9 @@
       <c r="S677" s="4">
         <v>201.040008544922</v>
       </c>
-      <c r="T677" s="4"/>
+      <c r="T677" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="678" spans="1:20">
       <c r="A678">
@@ -42048,7 +43330,9 @@
       <c r="S678" s="4">
         <v>254.075012207031</v>
       </c>
-      <c r="T678" s="4"/>
+      <c r="T678" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="679" spans="1:20">
       <c r="A679">
@@ -42108,7 +43392,9 @@
       <c r="S679" s="4">
         <v>336.880004882813</v>
       </c>
-      <c r="T679" s="4"/>
+      <c r="T679" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="680" spans="1:20">
       <c r="A680">
@@ -42168,7 +43454,9 @@
       <c r="S680" s="4">
         <v>342.60498046875</v>
       </c>
-      <c r="T680" s="4"/>
+      <c r="T680" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="681" spans="1:20">
       <c r="A681">
@@ -42228,7 +43516,9 @@
       <c r="S681" s="4">
         <v>145.330001831055</v>
       </c>
-      <c r="T681" s="4"/>
+      <c r="T681" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="682" spans="1:20">
       <c r="A682">
@@ -42288,7 +43578,9 @@
       <c r="S682" s="4">
         <v>170.080001831055</v>
       </c>
-      <c r="T682" s="4"/>
+      <c r="T682" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="683" spans="1:20">
       <c r="A683">
@@ -42348,7 +43640,9 @@
       <c r="S683" s="4">
         <v>214.75</v>
       </c>
-      <c r="T683" s="4"/>
+      <c r="T683" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="684" spans="1:20">
       <c r="A684">
@@ -42408,7 +43702,9 @@
       <c r="S684" s="4">
         <v>131.755004882812</v>
       </c>
-      <c r="T684" s="4"/>
+      <c r="T684" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="685" spans="1:20">
       <c r="A685">
@@ -42468,7 +43764,9 @@
       <c r="S685" s="4">
         <v>205.450012207031</v>
       </c>
-      <c r="T685" s="4"/>
+      <c r="T685" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="686" spans="1:20">
       <c r="A686">
@@ -42528,7 +43826,9 @@
       <c r="S686" s="4">
         <v>154.559997558594</v>
       </c>
-      <c r="T686" s="4"/>
+      <c r="T686" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="687" spans="1:20">
       <c r="A687">
@@ -42588,7 +43888,9 @@
       <c r="S687" s="4">
         <v>196.889999389648</v>
       </c>
-      <c r="T687" s="4"/>
+      <c r="T687" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="688" spans="1:20">
       <c r="A688">
@@ -42648,7 +43950,9 @@
       <c r="S688" s="4">
         <v>410.304992675781</v>
       </c>
-      <c r="T688" s="4"/>
+      <c r="T688" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="689" spans="1:20">
       <c r="A689">
@@ -42708,7 +44012,9 @@
       <c r="S689" s="4">
         <v>343.539978027344</v>
       </c>
-      <c r="T689" s="4"/>
+      <c r="T689" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="690" spans="1:20">
       <c r="A690">
@@ -42768,7 +44074,9 @@
       <c r="S690" s="4">
         <v>263.304992675781</v>
       </c>
-      <c r="T690" s="4"/>
+      <c r="T690" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="691" spans="1:20">
       <c r="A691">
@@ -42828,7 +44136,9 @@
       <c r="S691" s="4">
         <v>205.494995117187</v>
       </c>
-      <c r="T691" s="4"/>
+      <c r="T691" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="692" spans="1:20">
       <c r="A692">
@@ -42888,7 +44198,9 @@
       <c r="S692" s="4">
         <v>340.830017089844</v>
       </c>
-      <c r="T692" s="4"/>
+      <c r="T692" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="693" spans="1:20">
       <c r="A693">
@@ -42948,7 +44260,9 @@
       <c r="S693" s="4">
         <v>247.985000610352</v>
       </c>
-      <c r="T693" s="4"/>
+      <c r="T693" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="694" spans="1:20">
       <c r="A694">
@@ -43008,7 +44322,9 @@
       <c r="S694" s="4">
         <v>206.300003051758</v>
       </c>
-      <c r="T694" s="4"/>
+      <c r="T694" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="695" spans="1:20">
       <c r="A695">
@@ -43068,7 +44384,9 @@
       <c r="S695" s="4">
         <v>317.049987792969</v>
       </c>
-      <c r="T695" s="4"/>
+      <c r="T695" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="696" spans="1:20">
       <c r="A696">
@@ -43128,7 +44446,9 @@
       <c r="S696" s="4">
         <v>152.195007324219</v>
       </c>
-      <c r="T696" s="4"/>
+      <c r="T696" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="697" spans="1:20">
       <c r="A697">
@@ -43188,7 +44508,9 @@
       <c r="S697" s="4">
         <v>162.119995117187</v>
       </c>
-      <c r="T697" s="4"/>
+      <c r="T697" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="698" spans="1:20">
       <c r="A698">
@@ -43248,7 +44570,9 @@
       <c r="S698" s="4">
         <v>449.404968261719</v>
       </c>
-      <c r="T698" s="4"/>
+      <c r="T698" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="699" spans="1:20">
       <c r="A699">
@@ -43308,7 +44632,9 @@
       <c r="S699" s="4">
         <v>421.474975585938</v>
       </c>
-      <c r="T699" s="4"/>
+      <c r="T699" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="700" spans="1:20">
       <c r="A700">
@@ -43368,7 +44694,9 @@
       <c r="S700" s="4">
         <v>257.705017089844</v>
       </c>
-      <c r="T700" s="4"/>
+      <c r="T700" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="701" spans="1:20">
       <c r="A701">
@@ -43428,7 +44756,9 @@
       <c r="S701" s="4">
         <v>12.2350006103516</v>
       </c>
-      <c r="T701" s="4"/>
+      <c r="T701" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="702" spans="1:20">
       <c r="A702">
@@ -43488,7 +44818,9 @@
       <c r="S702" s="4">
         <v>112.430000305176</v>
       </c>
-      <c r="T702" s="4"/>
+      <c r="T702" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="703" spans="1:20">
       <c r="A703">
@@ -43548,7 +44880,9 @@
       <c r="S703" s="4">
         <v>288.309997558594</v>
       </c>
-      <c r="T703" s="4"/>
+      <c r="T703" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="704" spans="1:20">
       <c r="A704">
@@ -43608,7 +44942,9 @@
       <c r="S704" s="4">
         <v>312.575012207031</v>
       </c>
-      <c r="T704" s="4"/>
+      <c r="T704" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="705" spans="1:20">
       <c r="A705">
@@ -43668,7 +45004,9 @@
       <c r="S705" s="4">
         <v>169.315002441406</v>
       </c>
-      <c r="T705" s="4"/>
+      <c r="T705" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="706" spans="1:20">
       <c r="A706">
@@ -43728,7 +45066,9 @@
       <c r="S706" s="4">
         <v>153.214996337891</v>
       </c>
-      <c r="T706" s="4"/>
+      <c r="T706" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="707" spans="1:20">
       <c r="A707">
@@ -43788,7 +45128,9 @@
       <c r="S707" s="4">
         <v>305.669982910156</v>
       </c>
-      <c r="T707" s="4"/>
+      <c r="T707" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="708" spans="1:20">
       <c r="A708">
@@ -43848,7 +45190,9 @@
       <c r="S708" s="4">
         <v>275.850006103516</v>
       </c>
-      <c r="T708" s="4"/>
+      <c r="T708" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="709" spans="1:20">
       <c r="A709">
@@ -43908,7 +45252,9 @@
       <c r="S709" s="4">
         <v>90.0899963378906</v>
       </c>
-      <c r="T709" s="4"/>
+      <c r="T709" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="710" spans="1:20">
       <c r="A710">
@@ -43968,7 +45314,9 @@
       <c r="S710" s="4">
         <v>99.504997253418</v>
       </c>
-      <c r="T710" s="4"/>
+      <c r="T710" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="711" spans="1:20">
       <c r="A711">
@@ -44028,7 +45376,9 @@
       <c r="S711" s="4">
         <v>149.660003662109</v>
       </c>
-      <c r="T711" s="4"/>
+      <c r="T711" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="712" spans="1:20">
       <c r="A712">
@@ -44088,7 +45438,9 @@
       <c r="S712" s="4">
         <v>383.475006103516</v>
       </c>
-      <c r="T712" s="4"/>
+      <c r="T712" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="713" spans="1:20">
       <c r="A713">
@@ -44148,7 +45500,9 @@
       <c r="S713" s="4">
         <v>202.049987792969</v>
       </c>
-      <c r="T713" s="4"/>
+      <c r="T713" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="714" spans="1:20">
       <c r="A714">
@@ -44208,7 +45562,9 @@
       <c r="S714" s="4">
         <v>336.924987792969</v>
       </c>
-      <c r="T714" s="4"/>
+      <c r="T714" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="715" spans="1:20">
       <c r="A715">
@@ -44268,7 +45624,9 @@
       <c r="S715" s="4">
         <v>328.649993896484</v>
       </c>
-      <c r="T715" s="4"/>
+      <c r="T715" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="716" spans="1:20">
       <c r="A716">
@@ -44328,7 +45686,9 @@
       <c r="S716" s="4">
         <v>137.049987792969</v>
       </c>
-      <c r="T716" s="4"/>
+      <c r="T716" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="717" spans="1:20">
       <c r="A717">
@@ -44388,7 +45748,9 @@
       <c r="S717" s="4">
         <v>294.559997558594</v>
       </c>
-      <c r="T717" s="4"/>
+      <c r="T717" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="718" spans="1:20">
       <c r="A718">
@@ -44448,7 +45810,9 @@
       <c r="S718" s="4">
         <v>226.544998168945</v>
       </c>
-      <c r="T718" s="4"/>
+      <c r="T718" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="719" spans="1:20">
       <c r="A719">
@@ -44508,7 +45872,9 @@
       <c r="S719" s="4">
         <v>133.985000610352</v>
       </c>
-      <c r="T719" s="4"/>
+      <c r="T719" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="720" spans="1:20">
       <c r="A720">
@@ -44568,7 +45934,9 @@
       <c r="S720" s="4">
         <v>176.145004272461</v>
       </c>
-      <c r="T720" s="4"/>
+      <c r="T720" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="721" spans="1:20">
       <c r="A721">
@@ -44628,7 +45996,9 @@
       <c r="S721" s="4">
         <v>147.665008544922</v>
       </c>
-      <c r="T721" s="4"/>
+      <c r="T721" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="722" spans="1:20">
       <c r="A722">
@@ -44688,7 +46058,9 @@
       <c r="S722" s="4">
         <v>114.964996337891</v>
       </c>
-      <c r="T722" s="4"/>
+      <c r="T722" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="723" spans="1:20">
       <c r="A723">
@@ -44748,7 +46120,9 @@
       <c r="S723" s="4">
         <v>379.005004882813</v>
       </c>
-      <c r="T723" s="4"/>
+      <c r="T723" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="724" spans="1:20">
       <c r="A724">
@@ -44808,7 +46182,9 @@
       <c r="S724" s="4">
         <v>375.77001953125</v>
       </c>
-      <c r="T724" s="4"/>
+      <c r="T724" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="725" spans="1:20">
       <c r="A725">
@@ -44868,7 +46244,9 @@
       <c r="S725" s="4">
         <v>353.309997558594</v>
       </c>
-      <c r="T725" s="4"/>
+      <c r="T725" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="726" spans="1:20">
       <c r="A726">
@@ -44928,7 +46306,9 @@
       <c r="S726" s="4">
         <v>203.264999389648</v>
       </c>
-      <c r="T726" s="4"/>
+      <c r="T726" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="727" spans="1:20">
       <c r="A727">
@@ -44988,7 +46368,9 @@
       <c r="S727" s="4">
         <v>391.809997558594</v>
       </c>
-      <c r="T727" s="4"/>
+      <c r="T727" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="728" spans="1:20">
       <c r="A728">
@@ -45048,7 +46430,9 @@
       <c r="S728" s="4">
         <v>252.640014648437</v>
       </c>
-      <c r="T728" s="4"/>
+      <c r="T728" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="729" spans="1:20">
       <c r="A729">
@@ -45108,7 +46492,9 @@
       <c r="S729" s="4">
         <v>238.125</v>
       </c>
-      <c r="T729" s="4"/>
+      <c r="T729" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="730" spans="1:20">
       <c r="A730">
@@ -45168,7 +46554,9 @@
       <c r="S730" s="4">
         <v>228.470001220703</v>
       </c>
-      <c r="T730" s="4"/>
+      <c r="T730" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="731" spans="1:20">
       <c r="A731">
@@ -45228,7 +46616,9 @@
       <c r="S731" s="4">
         <v>135.934997558594</v>
       </c>
-      <c r="T731" s="4"/>
+      <c r="T731" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="732" spans="1:20">
       <c r="A732">
@@ -45288,7 +46678,9 @@
       <c r="S732" s="4">
         <v>186.195007324219</v>
       </c>
-      <c r="T732" s="4"/>
+      <c r="T732" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="733" spans="1:20">
       <c r="A733">
@@ -45348,7 +46740,9 @@
       <c r="S733" s="4">
         <v>391.119995117188</v>
       </c>
-      <c r="T733" s="4"/>
+      <c r="T733" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="734" spans="1:20">
       <c r="A734">
@@ -45408,7 +46802,9 @@
       <c r="S734" s="4">
         <v>194.115005493164</v>
       </c>
-      <c r="T734" s="4"/>
+      <c r="T734" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="735" spans="1:20">
       <c r="A735">
@@ -45468,7 +46864,9 @@
       <c r="S735" s="4">
         <v>253.860015869141</v>
       </c>
-      <c r="T735" s="4"/>
+      <c r="T735" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="736" spans="1:20">
       <c r="A736">
@@ -45528,7 +46926,9 @@
       <c r="S736" s="4">
         <v>10.920000076294</v>
       </c>
-      <c r="T736" s="4"/>
+      <c r="T736" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Province.xlsx
+++ b/data/Province.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$N$1:$N$736</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -91,7 +94,7 @@
     <t>特别行政区</t>
   </si>
   <si>
-    <t>aomen</t>
+    <t>macao</t>
   </si>
   <si>
     <t>北京市</t>
@@ -268,7 +271,7 @@
     <t>香港特别行政区</t>
   </si>
   <si>
-    <t>xianggang</t>
+    <t>hongkong</t>
   </si>
   <si>
     <t>新疆维吾尔自治区</t>
@@ -336,24 +339,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,23 +354,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,17 +375,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,19 +405,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,10 +437,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,7 +491,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,91 +545,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +575,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +629,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,31 +653,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,15 +682,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -702,6 +696,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,11 +733,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,17 +763,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,133 +800,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,8 +1286,8 @@
   <sheetPr/>
   <dimension ref="A1:T736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K667" workbookViewId="0">
-      <selection activeCell="T667" sqref="T667:T736"/>
+    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -46931,6 +46934,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="N1:N736">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
